--- a/Documentation/R5 Coords.xlsx
+++ b/Documentation/R5 Coords.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7961a9359f49a716/Documenten/Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Game_RPG_HTML\Game_RPG_Adventure\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{F74A59B3-969F-4E8B-8AA8-C695048DE087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{452BD52B-DF8C-45B1-977C-AE6D6484FC6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA55BA1-655C-4435-A6EF-EBFBA4A6DC0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{512C78F3-A0C6-4ABF-A448-CB69E8D98F3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512C78F3-A0C6-4ABF-A448-CB69E8D98F3B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="93">
   <si>
     <t xml:space="preserve">Plain </t>
   </si>
@@ -279,6 +280,36 @@
   </si>
   <si>
     <t>Snow*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Entrance</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Clif upwards</t>
+  </si>
+  <si>
+    <t>Clif Downwards</t>
+  </si>
+  <si>
+    <t>Special palce</t>
+  </si>
+  <si>
+    <t>Higher up plain</t>
+  </si>
+  <si>
+    <t>Version 2 in V2 tab (Look at the bottom)</t>
+  </si>
+  <si>
+    <t>This is version V1</t>
   </si>
 </sst>
 </file>
@@ -286,9 +317,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +355,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +433,34 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -835,7 +909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -847,14 +921,19 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1041,17 +1120,66 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="36" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="16">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
+    <cellStyle name="40% - Accent4" xfId="13" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="15" builtinId="51"/>
     <cellStyle name="60% - Accent3" xfId="6" builtinId="40"/>
     <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="14" builtinId="48"/>
     <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
     <cellStyle name="Accent6" xfId="9" builtinId="49"/>
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="11" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1365,666 +1493,2230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CB17-64F7-4862-A25D-07AD5395119C}">
-  <dimension ref="B1:AB13"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="AH10" sqref="AH10:AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="5.7109375" customWidth="1"/>
+    <col min="2" max="13" width="6.7109375" customWidth="1"/>
     <col min="18" max="28" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="49">
+    <row r="1" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="82"/>
+    </row>
+    <row r="2" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+    </row>
+    <row r="3" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="49">
         <v>0.5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="5"/>
-      <c r="O2" s="1" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="35">
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="35">
         <v>0.5</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="51" t="s">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E4" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G4" s="59">
         <v>0.4</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I4" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>59</v>
-      </c>
+      <c r="K4" s="9"/>
       <c r="L4" s="13"/>
       <c r="M4" s="5"/>
-      <c r="O4" s="3" t="s">
-        <v>2</v>
+      <c r="O4" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="R4" s="8"/>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="9"/>
+      <c r="T4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="D5" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="E5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="F5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="19">
+      <c r="G5" s="53">
         <v>0.3</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="H5" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="I5" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="J5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="K5" s="62" t="s">
         <v>59</v>
-      </c>
-      <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>57</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="5"/>
-      <c r="O5" s="4" t="s">
-        <v>3</v>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="R5" s="8"/>
-      <c r="S5" s="44" t="s">
-        <v>39</v>
+      <c r="S5" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="U5" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="2:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="53">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="36" t="s">
+      <c r="R7" s="8"/>
+      <c r="S7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W7" s="18">
         <v>0.1</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="AA7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="13"/>
-    </row>
-    <row r="7" spans="2:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C8" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G8" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L8" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="O7" s="23" t="s">
+      <c r="M8" s="5"/>
+      <c r="O8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="Y8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="Z8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AA8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB8" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="5"/>
-      <c r="O8" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB8" s="13"/>
-    </row>
-    <row r="9" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="5"/>
+      <c r="O9" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="R9" s="8"/>
       <c r="S9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="13"/>
+    </row>
+    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="D10" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="E10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="F10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="G10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="H10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="I10" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="Z9" s="27" t="s">
+      <c r="J10" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="K10" s="64" t="s">
         <v>64</v>
-      </c>
-      <c r="AB9" s="13"/>
-    </row>
-    <row r="10" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>65</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="5"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="41" t="s">
+      <c r="S10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="T10" s="37" t="s">
+      <c r="D11" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="E11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="F11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="W10" s="19" t="s">
+      <c r="G11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="19" t="s">
+      <c r="H11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="I11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="Z10" s="27" t="s">
+      <c r="J11" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="K11" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="5"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA11" s="9"/>
+      <c r="S11" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="2:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="D12" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="5"/>
       <c r="R12" s="8"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="T12" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="5"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="14"/>
+    <row r="13" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="14"/>
+    </row>
+    <row r="15" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633D3A55-0251-4EBF-A0D1-C7B60468E582}">
+  <dimension ref="A1:BE23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="28" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="74">
+        <v>10</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="70">
+        <v>10</v>
+      </c>
+      <c r="AV2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+    </row>
+    <row r="3" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80">
+        <v>9</v>
+      </c>
+      <c r="M3" s="80"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="70">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY3" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+    </row>
+    <row r="4" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80">
+        <v>8</v>
+      </c>
+      <c r="M4" s="80"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP4" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="70">
+        <v>8</v>
+      </c>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA4" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+    </row>
+    <row r="5" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80">
+        <v>7</v>
+      </c>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="70">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="68"/>
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="68"/>
+      <c r="BB5" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+    </row>
+    <row r="6" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80">
+        <v>6</v>
+      </c>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="70">
+        <v>6</v>
+      </c>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+    </row>
+    <row r="7" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80">
+        <v>5</v>
+      </c>
+      <c r="M7" s="80"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="70">
+        <v>5</v>
+      </c>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+    </row>
+    <row r="8" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74">
+        <v>4</v>
+      </c>
+      <c r="M8" s="80"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="70">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE8" s="68"/>
+    </row>
+    <row r="9" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74">
+        <v>3</v>
+      </c>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="68"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="68"/>
+      <c r="AU9" s="70">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="68"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="68"/>
+      <c r="BD9" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE9" s="68"/>
+    </row>
+    <row r="10" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68"/>
+      <c r="B10" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74">
+        <v>2</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="68"/>
+      <c r="AT10" s="68"/>
+      <c r="AU10" s="70">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
+      <c r="BD10" s="68"/>
+      <c r="BE10" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74">
+        <v>1</v>
+      </c>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="70">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="BE11" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="77">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="77">
+        <v>-9</v>
+      </c>
+      <c r="D12" s="77">
+        <v>-8</v>
+      </c>
+      <c r="E12" s="74">
+        <v>-7</v>
+      </c>
+      <c r="F12" s="74">
+        <v>-6</v>
+      </c>
+      <c r="G12" s="80">
+        <v>-5</v>
+      </c>
+      <c r="H12" s="80">
+        <v>-4</v>
+      </c>
+      <c r="I12" s="80">
+        <v>-3</v>
+      </c>
+      <c r="J12" s="74">
+        <v>-2</v>
+      </c>
+      <c r="K12" s="74">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="74">
+        <v>0</v>
+      </c>
+      <c r="M12" s="74">
+        <v>1</v>
+      </c>
+      <c r="N12" s="74">
+        <v>2</v>
+      </c>
+      <c r="O12" s="80">
+        <v>3</v>
+      </c>
+      <c r="P12" s="80">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="74">
+        <v>5</v>
+      </c>
+      <c r="R12" s="74">
+        <v>6</v>
+      </c>
+      <c r="S12" s="70">
+        <v>7</v>
+      </c>
+      <c r="T12" s="72">
+        <v>8</v>
+      </c>
+      <c r="U12" s="72">
+        <v>9</v>
+      </c>
+      <c r="V12" s="72">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="70">
+        <v>-10</v>
+      </c>
+      <c r="AL12" s="70">
+        <v>-9</v>
+      </c>
+      <c r="AM12" s="70">
+        <v>-8</v>
+      </c>
+      <c r="AN12" s="70">
+        <v>-7</v>
+      </c>
+      <c r="AO12" s="70">
+        <v>-6</v>
+      </c>
+      <c r="AP12" s="70">
+        <v>-5</v>
+      </c>
+      <c r="AQ12" s="70">
+        <v>-4</v>
+      </c>
+      <c r="AR12" s="70">
+        <v>-3</v>
+      </c>
+      <c r="AS12" s="70">
+        <v>-2</v>
+      </c>
+      <c r="AT12" s="70">
+        <v>-1</v>
+      </c>
+      <c r="AU12" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="70">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="70">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="70">
+        <v>3</v>
+      </c>
+      <c r="AY12" s="70">
+        <v>4</v>
+      </c>
+      <c r="AZ12" s="70">
+        <v>5</v>
+      </c>
+      <c r="BA12" s="70">
+        <v>6</v>
+      </c>
+      <c r="BB12" s="70">
+        <v>7</v>
+      </c>
+      <c r="BC12" s="70">
+        <v>8</v>
+      </c>
+      <c r="BD12" s="70">
+        <v>9</v>
+      </c>
+      <c r="BE12" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="70">
+        <v>-1</v>
+      </c>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BE13" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74">
+        <v>-2</v>
+      </c>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" s="76"/>
+      <c r="Z14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="70">
+        <v>-2</v>
+      </c>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="74">
+        <v>-3</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="68"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="70">
+        <v>-3</v>
+      </c>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE15" s="68"/>
+    </row>
+    <row r="16" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74">
+        <v>-4</v>
+      </c>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" s="68"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="70">
+        <v>-4</v>
+      </c>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE16" s="68"/>
+    </row>
+    <row r="17" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="74">
+        <v>-5</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="70">
+        <v>-5</v>
+      </c>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+    </row>
+    <row r="18" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80">
+        <v>-6</v>
+      </c>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="70">
+        <v>-6</v>
+      </c>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+    </row>
+    <row r="19" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80">
+        <v>-7</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="70">
+        <v>-7</v>
+      </c>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+    </row>
+    <row r="20" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="80">
+        <v>-8</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP20" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="70">
+        <v>-8</v>
+      </c>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA20" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+    </row>
+    <row r="21" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="78">
+        <v>-9</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR21" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="70">
+        <v>-9</v>
+      </c>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY21" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+    </row>
+    <row r="22" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="76">
+        <v>-10</v>
+      </c>
+      <c r="M22" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT22" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU22" s="70">
+        <v>-10</v>
+      </c>
+      <c r="AV22" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW22" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="68"/>
+      <c r="BE22" s="68"/>
+    </row>
+    <row r="23" spans="1:57" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/R5 Coords.xlsx
+++ b/Documentation/R5 Coords.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Game_RPG_HTML\Game_RPG_Adventure\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koen/Documents/GitHub/Game_RPG_Adventure/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA55BA1-655C-4435-A6EF-EBFBA4A6DC0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512C78F3-A0C6-4ABF-A448-CB69E8D98F3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V2" sheetId="2" r:id="rId2"/>
+    <sheet name="Converted to numbers" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="93">
   <si>
     <t xml:space="preserve">Plain </t>
   </si>
@@ -315,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -927,7 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="9"/>
@@ -1163,6 +1169,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1178,10 +1187,10 @@
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent4" xfId="12" builtinId="41"/>
     <cellStyle name="Accent6" xfId="9" builtinId="49"/>
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="11" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,20 +1501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CB17-64F7-4862-A25D-07AD5395119C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10:AH11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="13" width="6.7109375" customWidth="1"/>
-    <col min="18" max="28" width="5.7109375" customWidth="1"/>
+    <col min="2" max="13" width="6.6640625" customWidth="1"/>
+    <col min="18" max="28" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
         <v>92</v>
       </c>
@@ -1515,7 +1524,7 @@
       <c r="E1" s="83"/>
       <c r="F1" s="82"/>
     </row>
-    <row r="2" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="83" t="s">
         <v>91</v>
       </c>
@@ -1531,7 +1540,7 @@
       <c r="K2" s="83"/>
       <c r="L2" s="83"/>
     </row>
-    <row r="3" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1563,7 +1572,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="12"/>
     </row>
-    <row r="4" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="51" t="s">
@@ -1619,7 +1628,7 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="61" t="s">
         <v>61</v>
@@ -1683,7 +1692,7 @@
       </c>
       <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="63" t="s">
         <v>39</v>
@@ -1747,7 +1756,7 @@
       </c>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="63" t="s">
         <v>38</v>
@@ -1811,7 +1820,7 @@
       </c>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="63" t="s">
         <v>74</v>
@@ -1947,7 +1956,7 @@
       </c>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="63" t="s">
         <v>73</v>
@@ -2008,7 +2017,7 @@
       </c>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="54" t="s">
         <v>75</v>
@@ -2067,7 +2076,7 @@
       </c>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="54" t="s">
@@ -2118,7 +2127,7 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2143,7 +2152,7 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2164,7 +2173,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2177,7 +2186,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="42"/>
@@ -2190,7 +2199,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
@@ -2203,7 +2212,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="44"/>
       <c r="D18" s="43"/>
@@ -2216,7 +2225,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="36"/>
       <c r="D19" s="19"/>
@@ -2229,7 +2238,7 @@
       <c r="K19" s="33"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="19"/>
@@ -2242,7 +2251,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="39"/>
       <c r="D21" s="19"/>
@@ -2255,7 +2264,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="39"/>
       <c r="D22" s="37"/>
@@ -2268,7 +2277,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="41"/>
       <c r="D23" s="37"/>
@@ -2281,7 +2290,7 @@
       <c r="K23" s="16"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="41"/>
@@ -2294,7 +2303,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2307,7 +2316,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2331,21 +2340,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633D3A55-0251-4EBF-A0D1-C7B60468E582}">
-  <dimension ref="A1:BE23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="28" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -2411,7 +2420,7 @@
       <c r="BD2" s="68"/>
       <c r="BE2" s="68"/>
     </row>
-    <row r="3" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -2477,7 +2486,7 @@
       <c r="BD3" s="68"/>
       <c r="BE3" s="68"/>
     </row>
-    <row r="4" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -2543,7 +2552,7 @@
       <c r="BD4" s="68"/>
       <c r="BE4" s="68"/>
     </row>
-    <row r="5" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -2601,7 +2610,7 @@
       <c r="BD5" s="68"/>
       <c r="BE5" s="68"/>
     </row>
-    <row r="6" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -2659,7 +2668,7 @@
       <c r="BD6" s="68"/>
       <c r="BE6" s="68"/>
     </row>
-    <row r="7" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
@@ -2717,7 +2726,7 @@
       <c r="BD7" s="68"/>
       <c r="BE7" s="68"/>
     </row>
-    <row r="8" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="68"/>
       <c r="B8" s="68"/>
       <c r="C8" s="77" t="s">
@@ -2775,7 +2784,7 @@
       </c>
       <c r="BE8" s="68"/>
     </row>
-    <row r="9" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="77" t="s">
@@ -2833,7 +2842,7 @@
       </c>
       <c r="BE9" s="68"/>
     </row>
-    <row r="10" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="68"/>
       <c r="B10" s="77" t="s">
         <v>83</v>
@@ -2891,7 +2900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
       <c r="B11" s="77" t="s">
         <v>83</v>
@@ -2942,7 +2951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="68"/>
       <c r="B12" s="77">
         <v>-10</v>
@@ -3072,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
       <c r="B13" s="74" t="s">
         <v>83</v>
@@ -3128,15 +3137,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="68"/>
       <c r="B14" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="78"/>
       <c r="F14" s="80"/>
       <c r="G14" s="80"/>
@@ -3192,7 +3201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
       <c r="B15" s="68"/>
       <c r="C15" s="76" t="s">
@@ -3254,7 +3263,7 @@
       </c>
       <c r="BE15" s="68"/>
     </row>
-    <row r="16" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="68"/>
       <c r="B16" s="68"/>
       <c r="C16" s="76" t="s">
@@ -3316,7 +3325,7 @@
       </c>
       <c r="BE16" s="68"/>
     </row>
-    <row r="17" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
@@ -3378,7 +3387,7 @@
       <c r="BD17" s="68"/>
       <c r="BE17" s="68"/>
     </row>
-    <row r="18" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -3440,7 +3449,7 @@
       <c r="BD18" s="68"/>
       <c r="BE18" s="68"/>
     </row>
-    <row r="19" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
@@ -3502,7 +3511,7 @@
       <c r="BD19" s="68"/>
       <c r="BE19" s="68"/>
     </row>
-    <row r="20" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -3572,7 +3581,7 @@
       <c r="BD20" s="68"/>
       <c r="BE20" s="68"/>
     </row>
-    <row r="21" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -3642,7 +3651,7 @@
       <c r="BD21" s="68"/>
       <c r="BE21" s="68"/>
     </row>
-    <row r="22" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="68"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
@@ -3712,11 +3721,1847 @@
       <c r="BD22" s="68"/>
       <c r="BE22" s="68"/>
     </row>
-    <row r="23" spans="1:57" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:57" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="74">
+        <v>10</v>
+      </c>
+      <c r="M26" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80">
+        <v>9</v>
+      </c>
+      <c r="M27" s="80"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80">
+        <v>8</v>
+      </c>
+      <c r="M28" s="80"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80">
+        <v>7</v>
+      </c>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80">
+        <v>6</v>
+      </c>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80">
+        <v>5</v>
+      </c>
+      <c r="M31" s="80"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B32" s="68"/>
+      <c r="C32" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74">
+        <v>4</v>
+      </c>
+      <c r="M32" s="80"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="V32" s="68"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="68"/>
+      <c r="C33" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74">
+        <v>3</v>
+      </c>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="V33" s="68"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74">
+        <v>2</v>
+      </c>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74">
+        <v>1</v>
+      </c>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="77">
+        <v>-10</v>
+      </c>
+      <c r="C36" s="77">
+        <v>-9</v>
+      </c>
+      <c r="D36" s="77">
+        <v>-8</v>
+      </c>
+      <c r="E36" s="74">
+        <v>-7</v>
+      </c>
+      <c r="F36" s="74">
+        <v>-6</v>
+      </c>
+      <c r="G36" s="80">
+        <v>-5</v>
+      </c>
+      <c r="H36" s="80">
+        <v>-4</v>
+      </c>
+      <c r="I36" s="80">
+        <v>-3</v>
+      </c>
+      <c r="J36" s="74">
+        <v>-2</v>
+      </c>
+      <c r="K36" s="74">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="74">
+        <v>0</v>
+      </c>
+      <c r="M36" s="74">
+        <v>1</v>
+      </c>
+      <c r="N36" s="74">
+        <v>2</v>
+      </c>
+      <c r="O36" s="80">
+        <v>3</v>
+      </c>
+      <c r="P36" s="80">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="74">
+        <v>5</v>
+      </c>
+      <c r="R36" s="74">
+        <v>6</v>
+      </c>
+      <c r="S36" s="70">
+        <v>7</v>
+      </c>
+      <c r="T36" s="72">
+        <v>8</v>
+      </c>
+      <c r="U36" s="72">
+        <v>9</v>
+      </c>
+      <c r="V36" s="72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74">
+        <v>-2</v>
+      </c>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="68"/>
+      <c r="C39" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="74">
+        <v>-3</v>
+      </c>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="V39" s="68"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="68"/>
+      <c r="C40" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="74">
+        <v>-4</v>
+      </c>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="V40" s="68"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="76"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="74">
+        <v>-5</v>
+      </c>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80">
+        <v>-6</v>
+      </c>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80">
+        <v>-7</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="80">
+        <v>-8</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="R44" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="78">
+        <v>-9</v>
+      </c>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="76">
+        <v>-10</v>
+      </c>
+      <c r="M46" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="N46" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="74">
+        <v>1</v>
+      </c>
+      <c r="J1" s="74">
+        <v>1</v>
+      </c>
+      <c r="K1" s="74">
+        <v>1</v>
+      </c>
+      <c r="L1" s="74">
+        <v>1</v>
+      </c>
+      <c r="M1" s="75">
+        <v>2</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="77">
+        <v>6</v>
+      </c>
+      <c r="H2" s="74">
+        <v>1</v>
+      </c>
+      <c r="I2" s="80">
+        <v>0</v>
+      </c>
+      <c r="J2" s="80">
+        <v>0</v>
+      </c>
+      <c r="K2" s="80">
+        <v>0</v>
+      </c>
+      <c r="L2" s="80">
+        <v>0</v>
+      </c>
+      <c r="M2" s="75">
+        <v>2</v>
+      </c>
+      <c r="N2" s="75">
+        <v>2</v>
+      </c>
+      <c r="O2" s="75">
+        <v>2</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="71">
+        <v>4</v>
+      </c>
+      <c r="F3" s="77">
+        <v>6</v>
+      </c>
+      <c r="G3" s="77">
+        <v>6</v>
+      </c>
+      <c r="H3" s="74">
+        <v>1</v>
+      </c>
+      <c r="I3" s="80">
+        <v>0</v>
+      </c>
+      <c r="J3" s="80">
+        <v>0</v>
+      </c>
+      <c r="K3" s="80">
+        <v>0</v>
+      </c>
+      <c r="L3" s="80">
+        <v>0</v>
+      </c>
+      <c r="M3" s="75">
+        <v>2</v>
+      </c>
+      <c r="N3" s="75">
+        <v>2</v>
+      </c>
+      <c r="O3" s="75">
+        <v>2</v>
+      </c>
+      <c r="P3" s="75">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>4</v>
+      </c>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="77">
+        <v>6</v>
+      </c>
+      <c r="E4" s="77">
+        <v>6</v>
+      </c>
+      <c r="F4" s="77">
+        <v>6</v>
+      </c>
+      <c r="G4" s="77">
+        <v>6</v>
+      </c>
+      <c r="H4" s="74">
+        <v>1</v>
+      </c>
+      <c r="I4" s="80">
+        <v>0</v>
+      </c>
+      <c r="J4" s="80">
+        <v>0</v>
+      </c>
+      <c r="K4" s="80">
+        <v>0</v>
+      </c>
+      <c r="L4" s="80">
+        <v>0</v>
+      </c>
+      <c r="M4" s="80">
+        <v>0</v>
+      </c>
+      <c r="N4" s="75">
+        <v>2</v>
+      </c>
+      <c r="O4" s="75">
+        <v>2</v>
+      </c>
+      <c r="P4" s="75">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="75">
+        <v>2</v>
+      </c>
+      <c r="R4" s="75">
+        <v>2</v>
+      </c>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="71">
+        <v>4</v>
+      </c>
+      <c r="D5" s="77">
+        <v>6</v>
+      </c>
+      <c r="E5" s="77">
+        <v>6</v>
+      </c>
+      <c r="F5" s="77">
+        <v>6</v>
+      </c>
+      <c r="G5" s="77">
+        <v>6</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="80">
+        <v>0</v>
+      </c>
+      <c r="J5" s="80">
+        <v>0</v>
+      </c>
+      <c r="K5" s="80">
+        <v>0</v>
+      </c>
+      <c r="L5" s="80">
+        <v>0</v>
+      </c>
+      <c r="M5" s="80">
+        <v>0</v>
+      </c>
+      <c r="N5" s="80">
+        <v>0</v>
+      </c>
+      <c r="O5" s="75">
+        <v>2</v>
+      </c>
+      <c r="P5" s="75">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="75">
+        <v>2</v>
+      </c>
+      <c r="R5" s="75">
+        <v>2</v>
+      </c>
+      <c r="S5" s="71">
+        <v>4</v>
+      </c>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="77">
+        <v>6</v>
+      </c>
+      <c r="D6" s="77">
+        <v>6</v>
+      </c>
+      <c r="E6" s="77">
+        <v>6</v>
+      </c>
+      <c r="F6" s="77">
+        <v>6</v>
+      </c>
+      <c r="G6" s="77">
+        <v>6</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="80">
+        <v>0</v>
+      </c>
+      <c r="J6" s="80">
+        <v>0</v>
+      </c>
+      <c r="K6" s="80">
+        <v>0</v>
+      </c>
+      <c r="L6" s="80">
+        <v>0</v>
+      </c>
+      <c r="M6" s="74">
+        <v>1</v>
+      </c>
+      <c r="N6" s="80">
+        <v>0</v>
+      </c>
+      <c r="O6" s="80">
+        <v>0</v>
+      </c>
+      <c r="P6" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="75">
+        <v>2</v>
+      </c>
+      <c r="R6" s="75">
+        <v>2</v>
+      </c>
+      <c r="S6" s="75">
+        <v>2</v>
+      </c>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="77">
+        <v>6</v>
+      </c>
+      <c r="C7" s="77">
+        <v>6</v>
+      </c>
+      <c r="D7" s="77">
+        <v>6</v>
+      </c>
+      <c r="E7" s="77">
+        <v>6</v>
+      </c>
+      <c r="F7" s="77">
+        <v>6</v>
+      </c>
+      <c r="G7" s="77">
+        <v>6</v>
+      </c>
+      <c r="H7" s="74">
+        <v>1</v>
+      </c>
+      <c r="I7" s="74">
+        <v>1</v>
+      </c>
+      <c r="J7" s="74">
+        <v>1</v>
+      </c>
+      <c r="K7" s="74">
+        <v>1</v>
+      </c>
+      <c r="L7" s="80">
+        <v>0</v>
+      </c>
+      <c r="M7" s="74">
+        <v>1</v>
+      </c>
+      <c r="N7" s="74">
+        <v>1</v>
+      </c>
+      <c r="O7" s="74">
+        <v>1</v>
+      </c>
+      <c r="P7" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="80">
+        <v>0</v>
+      </c>
+      <c r="R7" s="75">
+        <v>2</v>
+      </c>
+      <c r="S7" s="75">
+        <v>2</v>
+      </c>
+      <c r="T7" s="75">
+        <v>2</v>
+      </c>
+      <c r="U7" s="68"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="77">
+        <v>6</v>
+      </c>
+      <c r="C8" s="77">
+        <v>6</v>
+      </c>
+      <c r="D8" s="77">
+        <v>6</v>
+      </c>
+      <c r="E8" s="77">
+        <v>6</v>
+      </c>
+      <c r="F8" s="77">
+        <v>6</v>
+      </c>
+      <c r="G8" s="74">
+        <v>1</v>
+      </c>
+      <c r="H8" s="74">
+        <v>1</v>
+      </c>
+      <c r="I8" s="74">
+        <v>1</v>
+      </c>
+      <c r="J8" s="74">
+        <v>1</v>
+      </c>
+      <c r="K8" s="74">
+        <v>1</v>
+      </c>
+      <c r="L8" s="74">
+        <v>1</v>
+      </c>
+      <c r="M8" s="74">
+        <v>1</v>
+      </c>
+      <c r="N8" s="74">
+        <v>1</v>
+      </c>
+      <c r="O8" s="74">
+        <v>1</v>
+      </c>
+      <c r="P8" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="74">
+        <v>1</v>
+      </c>
+      <c r="R8" s="80">
+        <v>0</v>
+      </c>
+      <c r="S8" s="75">
+        <v>2</v>
+      </c>
+      <c r="T8" s="75">
+        <v>2</v>
+      </c>
+      <c r="U8" s="68"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="77">
+        <v>6</v>
+      </c>
+      <c r="B9" s="77">
+        <v>6</v>
+      </c>
+      <c r="C9" s="77">
+        <v>6</v>
+      </c>
+      <c r="D9" s="77">
+        <v>6</v>
+      </c>
+      <c r="E9" s="77">
+        <v>6</v>
+      </c>
+      <c r="F9" s="74">
+        <v>1</v>
+      </c>
+      <c r="G9" s="74">
+        <v>1</v>
+      </c>
+      <c r="H9" s="74">
+        <v>1</v>
+      </c>
+      <c r="I9" s="74">
+        <v>1</v>
+      </c>
+      <c r="J9" s="74">
+        <v>1</v>
+      </c>
+      <c r="K9" s="74">
+        <v>1</v>
+      </c>
+      <c r="L9" s="74">
+        <v>1</v>
+      </c>
+      <c r="M9" s="74">
+        <v>1</v>
+      </c>
+      <c r="N9" s="74">
+        <v>1</v>
+      </c>
+      <c r="O9" s="74">
+        <v>1</v>
+      </c>
+      <c r="P9" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="74">
+        <v>1</v>
+      </c>
+      <c r="R9" s="80">
+        <v>0</v>
+      </c>
+      <c r="S9" s="75">
+        <v>2</v>
+      </c>
+      <c r="T9" s="75">
+        <v>2</v>
+      </c>
+      <c r="U9" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="77">
+        <v>6</v>
+      </c>
+      <c r="B10" s="77">
+        <v>6</v>
+      </c>
+      <c r="C10" s="77">
+        <v>6</v>
+      </c>
+      <c r="D10" s="77">
+        <v>6</v>
+      </c>
+      <c r="E10" s="74">
+        <v>1</v>
+      </c>
+      <c r="F10" s="74">
+        <v>1</v>
+      </c>
+      <c r="G10" s="74">
+        <v>1</v>
+      </c>
+      <c r="H10" s="80">
+        <v>0</v>
+      </c>
+      <c r="I10" s="74">
+        <v>1</v>
+      </c>
+      <c r="J10" s="74">
+        <v>1</v>
+      </c>
+      <c r="K10" s="74">
+        <v>1</v>
+      </c>
+      <c r="L10" s="74">
+        <v>1</v>
+      </c>
+      <c r="M10" s="74">
+        <v>1</v>
+      </c>
+      <c r="N10" s="81">
+        <v>0</v>
+      </c>
+      <c r="O10" s="81">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="77">
+        <v>6</v>
+      </c>
+      <c r="B11" s="77">
+        <v>6</v>
+      </c>
+      <c r="C11" s="77">
+        <v>6</v>
+      </c>
+      <c r="D11" s="74">
+        <v>1</v>
+      </c>
+      <c r="E11" s="74">
+        <v>1</v>
+      </c>
+      <c r="F11" s="80">
+        <v>0</v>
+      </c>
+      <c r="G11" s="80">
+        <v>0</v>
+      </c>
+      <c r="H11" s="80">
+        <v>0</v>
+      </c>
+      <c r="I11" s="74">
+        <v>1</v>
+      </c>
+      <c r="J11" s="74">
+        <v>1</v>
+      </c>
+      <c r="K11" s="74">
+        <v>1</v>
+      </c>
+      <c r="L11" s="74">
+        <v>1</v>
+      </c>
+      <c r="M11" s="74">
+        <v>1</v>
+      </c>
+      <c r="N11" s="80">
+        <v>0</v>
+      </c>
+      <c r="O11" s="80">
+        <v>0</v>
+      </c>
+      <c r="P11" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="74">
+        <v>1</v>
+      </c>
+      <c r="R11" s="70">
+        <v>10</v>
+      </c>
+      <c r="S11" s="72">
+        <v>9</v>
+      </c>
+      <c r="T11" s="72">
+        <v>9</v>
+      </c>
+      <c r="U11" s="72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="74">
+        <v>1</v>
+      </c>
+      <c r="B12" s="74">
+        <v>1</v>
+      </c>
+      <c r="C12" s="74">
+        <v>1</v>
+      </c>
+      <c r="D12" s="74">
+        <v>1</v>
+      </c>
+      <c r="E12" s="80">
+        <v>0</v>
+      </c>
+      <c r="F12" s="80">
+        <v>0</v>
+      </c>
+      <c r="G12" s="80">
+        <v>0</v>
+      </c>
+      <c r="H12" s="80">
+        <v>0</v>
+      </c>
+      <c r="I12" s="80">
+        <v>0</v>
+      </c>
+      <c r="J12" s="74">
+        <v>1</v>
+      </c>
+      <c r="K12" s="74">
+        <v>1</v>
+      </c>
+      <c r="L12" s="74">
+        <v>1</v>
+      </c>
+      <c r="M12" s="74">
+        <v>1</v>
+      </c>
+      <c r="N12" s="80">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="74">
+        <v>1</v>
+      </c>
+      <c r="R12" s="72">
+        <v>9</v>
+      </c>
+      <c r="S12" s="4">
+        <v>3</v>
+      </c>
+      <c r="T12" s="4">
+        <v>3</v>
+      </c>
+      <c r="U12" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="74">
+        <v>1</v>
+      </c>
+      <c r="B13" s="79">
+        <v>7</v>
+      </c>
+      <c r="C13" s="79">
+        <v>7</v>
+      </c>
+      <c r="D13" s="78">
+        <v>8</v>
+      </c>
+      <c r="E13" s="80">
+        <v>0</v>
+      </c>
+      <c r="F13" s="80">
+        <v>0</v>
+      </c>
+      <c r="G13" s="80">
+        <v>0</v>
+      </c>
+      <c r="H13" s="80">
+        <v>0</v>
+      </c>
+      <c r="I13" s="80">
+        <v>0</v>
+      </c>
+      <c r="J13" s="74">
+        <v>1</v>
+      </c>
+      <c r="K13" s="74">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74">
+        <v>1</v>
+      </c>
+      <c r="M13" s="74">
+        <v>1</v>
+      </c>
+      <c r="N13" s="80">
+        <v>0</v>
+      </c>
+      <c r="O13" s="80">
+        <v>0</v>
+      </c>
+      <c r="P13" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>4</v>
+      </c>
+      <c r="R13" s="73">
+        <v>3</v>
+      </c>
+      <c r="S13" s="73">
+        <v>3</v>
+      </c>
+      <c r="T13" s="73">
+        <v>3</v>
+      </c>
+      <c r="U13" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="68"/>
+      <c r="B14" s="76">
+        <v>5</v>
+      </c>
+      <c r="C14" s="76">
+        <v>5</v>
+      </c>
+      <c r="D14" s="78">
+        <v>8</v>
+      </c>
+      <c r="E14" s="74">
+        <v>1</v>
+      </c>
+      <c r="F14" s="74">
+        <v>1</v>
+      </c>
+      <c r="G14" s="74">
+        <v>1</v>
+      </c>
+      <c r="H14" s="81">
+        <v>0</v>
+      </c>
+      <c r="I14" s="80">
+        <v>0</v>
+      </c>
+      <c r="J14" s="80">
+        <v>0</v>
+      </c>
+      <c r="K14" s="74">
+        <v>1</v>
+      </c>
+      <c r="L14" s="74">
+        <v>1</v>
+      </c>
+      <c r="M14" s="74">
+        <v>1</v>
+      </c>
+      <c r="N14" s="80">
+        <v>0</v>
+      </c>
+      <c r="O14" s="80">
+        <v>0</v>
+      </c>
+      <c r="P14" s="72">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="73">
+        <v>3</v>
+      </c>
+      <c r="R14" s="73">
+        <v>3</v>
+      </c>
+      <c r="S14" s="73">
+        <v>3</v>
+      </c>
+      <c r="T14" s="73">
+        <v>3</v>
+      </c>
+      <c r="U14" s="68"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="76">
+        <v>5</v>
+      </c>
+      <c r="C15" s="76">
+        <v>5</v>
+      </c>
+      <c r="D15" s="76">
+        <v>5</v>
+      </c>
+      <c r="E15" s="78">
+        <v>8</v>
+      </c>
+      <c r="F15" s="74">
+        <v>1</v>
+      </c>
+      <c r="G15" s="74">
+        <v>1</v>
+      </c>
+      <c r="H15" s="80">
+        <v>0</v>
+      </c>
+      <c r="I15" s="80">
+        <v>0</v>
+      </c>
+      <c r="J15" s="80">
+        <v>0</v>
+      </c>
+      <c r="K15" s="74">
+        <v>1</v>
+      </c>
+      <c r="L15" s="74">
+        <v>1</v>
+      </c>
+      <c r="M15" s="74">
+        <v>1</v>
+      </c>
+      <c r="N15" s="80">
+        <v>0</v>
+      </c>
+      <c r="O15" s="80">
+        <v>0</v>
+      </c>
+      <c r="P15" s="72">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="73">
+        <v>3</v>
+      </c>
+      <c r="R15" s="73">
+        <v>3</v>
+      </c>
+      <c r="S15" s="73">
+        <v>3</v>
+      </c>
+      <c r="T15" s="73">
+        <v>3</v>
+      </c>
+      <c r="U15" s="68"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="76">
+        <v>5</v>
+      </c>
+      <c r="D16" s="76">
+        <v>5</v>
+      </c>
+      <c r="E16" s="78">
+        <v>8</v>
+      </c>
+      <c r="F16" s="74">
+        <v>1</v>
+      </c>
+      <c r="G16" s="74">
+        <v>1</v>
+      </c>
+      <c r="H16" s="80">
+        <v>0</v>
+      </c>
+      <c r="I16" s="80">
+        <v>0</v>
+      </c>
+      <c r="J16" s="80">
+        <v>0</v>
+      </c>
+      <c r="K16" s="74">
+        <v>1</v>
+      </c>
+      <c r="L16" s="74">
+        <v>1</v>
+      </c>
+      <c r="M16" s="74">
+        <v>1</v>
+      </c>
+      <c r="N16" s="80">
+        <v>0</v>
+      </c>
+      <c r="O16" s="72">
+        <v>9</v>
+      </c>
+      <c r="P16" s="73">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="73">
+        <v>3</v>
+      </c>
+      <c r="R16" s="73">
+        <v>3</v>
+      </c>
+      <c r="S16" s="73">
+        <v>3</v>
+      </c>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="71">
+        <v>4</v>
+      </c>
+      <c r="D17" s="76">
+        <v>5</v>
+      </c>
+      <c r="E17" s="76">
+        <v>5</v>
+      </c>
+      <c r="F17" s="78">
+        <v>8</v>
+      </c>
+      <c r="G17" s="80">
+        <v>0</v>
+      </c>
+      <c r="H17" s="80">
+        <v>0</v>
+      </c>
+      <c r="I17" s="80">
+        <v>0</v>
+      </c>
+      <c r="J17" s="80">
+        <v>0</v>
+      </c>
+      <c r="K17" s="80">
+        <v>0</v>
+      </c>
+      <c r="L17" s="74">
+        <v>1</v>
+      </c>
+      <c r="M17" s="74">
+        <v>1</v>
+      </c>
+      <c r="N17" s="80">
+        <v>0</v>
+      </c>
+      <c r="O17" s="72">
+        <v>9</v>
+      </c>
+      <c r="P17" s="73">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="73">
+        <v>3</v>
+      </c>
+      <c r="R17" s="73">
+        <v>3</v>
+      </c>
+      <c r="S17" s="71">
+        <v>4</v>
+      </c>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="76">
+        <v>5</v>
+      </c>
+      <c r="E18" s="76">
+        <v>5</v>
+      </c>
+      <c r="F18" s="76">
+        <v>5</v>
+      </c>
+      <c r="G18" s="78">
+        <v>8</v>
+      </c>
+      <c r="H18" s="78">
+        <v>8</v>
+      </c>
+      <c r="I18" s="78">
+        <v>8</v>
+      </c>
+      <c r="J18" s="80">
+        <v>0</v>
+      </c>
+      <c r="K18" s="80">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="72">
+        <v>9</v>
+      </c>
+      <c r="P18" s="73">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="73">
+        <v>3</v>
+      </c>
+      <c r="R18" s="73">
+        <v>3</v>
+      </c>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="71">
+        <v>4</v>
+      </c>
+      <c r="F19" s="76">
+        <v>5</v>
+      </c>
+      <c r="G19" s="76">
+        <v>5</v>
+      </c>
+      <c r="H19" s="76">
+        <v>5</v>
+      </c>
+      <c r="I19" s="76">
+        <v>5</v>
+      </c>
+      <c r="J19" s="78">
+        <v>8</v>
+      </c>
+      <c r="K19" s="80">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="72">
+        <v>9</v>
+      </c>
+      <c r="P19" s="73">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>4</v>
+      </c>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="76">
+        <v>5</v>
+      </c>
+      <c r="H20" s="76">
+        <v>5</v>
+      </c>
+      <c r="I20" s="76">
+        <v>5</v>
+      </c>
+      <c r="J20" s="76">
+        <v>5</v>
+      </c>
+      <c r="K20" s="78">
+        <v>8</v>
+      </c>
+      <c r="L20" s="76">
+        <v>5</v>
+      </c>
+      <c r="M20" s="76">
+        <v>5</v>
+      </c>
+      <c r="N20" s="76">
+        <v>5</v>
+      </c>
+      <c r="O20" s="72">
+        <v>9</v>
+      </c>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="76">
+        <v>5</v>
+      </c>
+      <c r="J21" s="76">
+        <v>5</v>
+      </c>
+      <c r="K21" s="76">
+        <v>5</v>
+      </c>
+      <c r="L21" s="78">
+        <v>8</v>
+      </c>
+      <c r="M21" s="76">
+        <v>5</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/R5 Coords.xlsx
+++ b/Documentation/R5 Coords.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koen/Documents/GitHub/Game_RPG_Adventure/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD268ABC-AA3C-4C79-B05A-C7E2BD6C3153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13460" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -21,16 +22,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -321,11 +317,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +372,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +469,35 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -915,7 +946,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -932,8 +963,9 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="9"/>
@@ -1159,22 +1191,40 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="14" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
     <cellStyle name="40% - Accent4" xfId="13" builtinId="43"/>
@@ -1185,12 +1235,13 @@
     <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
     <cellStyle name="Accent4" xfId="12" builtinId="41"/>
     <cellStyle name="Accent6" xfId="9" builtinId="49"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="11" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,20 +1552,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="6.6640625" customWidth="1"/>
-    <col min="18" max="28" width="5.6640625" customWidth="1"/>
+    <col min="2" max="13" width="6.7109375" customWidth="1"/>
+    <col min="18" max="28" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="83" t="s">
         <v>92</v>
       </c>
@@ -1522,9 +1573,9 @@
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
       <c r="E1" s="83"/>
-      <c r="F1" s="82"/>
-    </row>
-    <row r="2" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="83" t="s">
         <v>91</v>
       </c>
@@ -1540,7 +1591,7 @@
       <c r="K2" s="83"/>
       <c r="L2" s="83"/>
     </row>
-    <row r="3" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1572,7 +1623,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="12"/>
     </row>
-    <row r="4" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="51" t="s">
@@ -1628,7 +1679,7 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="61" t="s">
         <v>61</v>
@@ -1692,7 +1743,7 @@
       </c>
       <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="63" t="s">
         <v>39</v>
@@ -1756,7 +1807,7 @@
       </c>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="63" t="s">
         <v>38</v>
@@ -1820,7 +1871,7 @@
       </c>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="63" t="s">
         <v>74</v>
@@ -1956,7 +2007,7 @@
       </c>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="63" t="s">
         <v>73</v>
@@ -2017,7 +2068,7 @@
       </c>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="54" t="s">
         <v>75</v>
@@ -2076,7 +2127,7 @@
       </c>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="54" t="s">
@@ -2127,7 +2178,7 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2152,7 +2203,7 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2173,7 +2224,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2186,7 +2237,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="42"/>
@@ -2199,7 +2250,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
@@ -2212,7 +2263,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="44"/>
       <c r="D18" s="43"/>
@@ -2225,7 +2276,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="36"/>
       <c r="D19" s="19"/>
@@ -2238,7 +2289,7 @@
       <c r="K19" s="33"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="19"/>
@@ -2251,7 +2302,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="39"/>
       <c r="D21" s="19"/>
@@ -2264,7 +2315,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="39"/>
       <c r="D22" s="37"/>
@@ -2277,7 +2328,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="41"/>
       <c r="D23" s="37"/>
@@ -2290,7 +2341,7 @@
       <c r="K23" s="16"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="41"/>
@@ -2303,7 +2354,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2316,7 +2367,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2340,21 +2391,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CU46"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:V22"/>
+    <sheetView topLeftCell="BF1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="CB1" sqref="CB1:CU21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="28" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="74">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="75">
+        <v>2</v>
+      </c>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
+      <c r="BU1" s="68"/>
+      <c r="BV1" s="68"/>
+      <c r="BW1" s="68"/>
+      <c r="BX1" s="68"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="74">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="75">
+        <v>2</v>
+      </c>
+      <c r="CN1" s="68"/>
+      <c r="CO1" s="68"/>
+      <c r="CP1" s="68"/>
+      <c r="CQ1" s="68"/>
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="68"/>
+      <c r="CT1" s="68"/>
+      <c r="CU1" s="68"/>
+    </row>
+    <row r="2" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -2419,8 +2533,86 @@
       <c r="BC2" s="68"/>
       <c r="BD2" s="68"/>
       <c r="BE2" s="68"/>
-    </row>
-    <row r="3" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="77">
+        <v>5</v>
+      </c>
+      <c r="BM2" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="79">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="75">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="75">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="75">
+        <v>2</v>
+      </c>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="68"/>
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="77">
+        <v>5</v>
+      </c>
+      <c r="CH2" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="79">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="75">
+        <v>2</v>
+      </c>
+      <c r="CN2" s="75">
+        <v>2</v>
+      </c>
+      <c r="CO2" s="75">
+        <v>2</v>
+      </c>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68"/>
+      <c r="CT2" s="68"/>
+      <c r="CU2" s="68"/>
+    </row>
+    <row r="3" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -2434,12 +2626,12 @@
       <c r="I3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80">
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79">
         <v>9</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="75"/>
       <c r="O3" s="75" t="s">
         <v>83</v>
@@ -2485,8 +2677,102 @@
       <c r="BC3" s="68"/>
       <c r="BD3" s="68"/>
       <c r="BE3" s="68"/>
-    </row>
-    <row r="4" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK3" s="77">
+        <v>5</v>
+      </c>
+      <c r="BL3" s="77">
+        <v>5</v>
+      </c>
+      <c r="BM3" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="79">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="75">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="75">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="75">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="75">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="75">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="68"/>
+      <c r="BY3" s="68"/>
+      <c r="BZ3" s="68"/>
+      <c r="CA3" s="68"/>
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="68"/>
+      <c r="CD3" s="68"/>
+      <c r="CE3" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF3" s="77">
+        <v>5</v>
+      </c>
+      <c r="CG3" s="77">
+        <v>5</v>
+      </c>
+      <c r="CH3" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="79">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="75">
+        <v>2</v>
+      </c>
+      <c r="CN3" s="75">
+        <v>2</v>
+      </c>
+      <c r="CO3" s="75">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="75">
+        <v>2</v>
+      </c>
+      <c r="CQ3" s="75">
+        <v>2</v>
+      </c>
+      <c r="CR3" s="68"/>
+      <c r="CS3" s="68"/>
+      <c r="CT3" s="68"/>
+      <c r="CU3" s="68"/>
+    </row>
+    <row r="4" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -2500,12 +2786,12 @@
       </c>
       <c r="H4" s="77"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79">
         <v>8</v>
       </c>
-      <c r="M4" s="80"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="75"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
@@ -2551,8 +2837,110 @@
       <c r="BC4" s="68"/>
       <c r="BD4" s="68"/>
       <c r="BE4" s="68"/>
-    </row>
-    <row r="5" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="77">
+        <v>5</v>
+      </c>
+      <c r="BJ4" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK4" s="77">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="77">
+        <v>5</v>
+      </c>
+      <c r="BM4" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="79">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="79">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="75">
+        <v>2</v>
+      </c>
+      <c r="BT4" s="75">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="75">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="75">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="88">
+        <v>16</v>
+      </c>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE4" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF4" s="77">
+        <v>5</v>
+      </c>
+      <c r="CG4" s="77">
+        <v>5</v>
+      </c>
+      <c r="CH4" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="79">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="79">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="75">
+        <v>2</v>
+      </c>
+      <c r="CO4" s="75">
+        <v>2</v>
+      </c>
+      <c r="CP4" s="75">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="75">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="75">
+        <v>2</v>
+      </c>
+      <c r="CS4" s="68"/>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="68"/>
+    </row>
+    <row r="5" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -2564,13 +2952,13 @@
       <c r="G5" s="77"/>
       <c r="H5" s="77"/>
       <c r="I5" s="74"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79">
         <v>7</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="75"/>
       <c r="P5" s="75"/>
       <c r="Q5" s="75"/>
@@ -2609,8 +2997,118 @@
       <c r="BC5" s="68"/>
       <c r="BD5" s="68"/>
       <c r="BE5" s="68"/>
-    </row>
-    <row r="6" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="77">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="77">
+        <v>5</v>
+      </c>
+      <c r="BL5" s="77">
+        <v>5</v>
+      </c>
+      <c r="BM5" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="79">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="79">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="75">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="75">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="75">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="75">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="75">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="68"/>
+      <c r="BZ5" s="68"/>
+      <c r="CA5" s="68"/>
+      <c r="CB5" s="68"/>
+      <c r="CC5" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD5" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE5" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF5" s="77">
+        <v>5</v>
+      </c>
+      <c r="CG5" s="77">
+        <v>5</v>
+      </c>
+      <c r="CH5" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="79">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="79">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="75">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="75">
+        <v>2</v>
+      </c>
+      <c r="CQ5" s="75">
+        <v>2</v>
+      </c>
+      <c r="CR5" s="75">
+        <v>2</v>
+      </c>
+      <c r="CS5" s="75">
+        <v>2</v>
+      </c>
+      <c r="CT5" s="68"/>
+      <c r="CU5" s="68"/>
+    </row>
+    <row r="6" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -2622,14 +3120,14 @@
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
       <c r="I6" s="74"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80">
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79">
         <v>6</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="75"/>
       <c r="Q6" s="75"/>
       <c r="R6" s="75"/>
@@ -2667,8 +3165,118 @@
       </c>
       <c r="BD6" s="68"/>
       <c r="BE6" s="68"/>
-    </row>
-    <row r="7" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="77">
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK6" s="77">
+        <v>5</v>
+      </c>
+      <c r="BL6" s="77">
+        <v>5</v>
+      </c>
+      <c r="BM6" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="79">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="75">
+        <v>2</v>
+      </c>
+      <c r="BW6" s="75">
+        <v>2</v>
+      </c>
+      <c r="BX6" s="75">
+        <v>2</v>
+      </c>
+      <c r="BY6" s="68"/>
+      <c r="BZ6" s="68"/>
+      <c r="CA6" s="68"/>
+      <c r="CB6" s="68"/>
+      <c r="CC6" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD6" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE6" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="77">
+        <v>5</v>
+      </c>
+      <c r="CG6" s="77">
+        <v>5</v>
+      </c>
+      <c r="CH6" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="79">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="75">
+        <v>2</v>
+      </c>
+      <c r="CR6" s="75">
+        <v>2</v>
+      </c>
+      <c r="CS6" s="75">
+        <v>2</v>
+      </c>
+      <c r="CT6" s="68"/>
+      <c r="CU6" s="68"/>
+    </row>
+    <row r="7" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
@@ -2680,16 +3288,16 @@
       <c r="G7" s="77"/>
       <c r="H7" s="77"/>
       <c r="I7" s="74"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80">
-        <v>5</v>
-      </c>
-      <c r="M7" s="80"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79">
+        <v>5</v>
+      </c>
+      <c r="M7" s="79"/>
       <c r="N7" s="74"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
       <c r="R7" s="75"/>
       <c r="S7" s="75"/>
       <c r="T7" s="75" t="s">
@@ -2725,8 +3333,126 @@
       </c>
       <c r="BD7" s="68"/>
       <c r="BE7" s="68"/>
-    </row>
-    <row r="8" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="77">
+        <v>5</v>
+      </c>
+      <c r="BH7" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI7" s="87">
+        <v>101</v>
+      </c>
+      <c r="BJ7" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="77">
+        <v>5</v>
+      </c>
+      <c r="BL7" s="77">
+        <v>5</v>
+      </c>
+      <c r="BM7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="79">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="74">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="79">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="79">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="75">
+        <v>2</v>
+      </c>
+      <c r="BX7" s="75">
+        <v>2</v>
+      </c>
+      <c r="BY7" s="75">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="68"/>
+      <c r="CA7" s="68"/>
+      <c r="CB7" s="77">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD7" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE7" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF7" s="77">
+        <v>5</v>
+      </c>
+      <c r="CG7" s="77">
+        <v>5</v>
+      </c>
+      <c r="CH7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="79">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="74">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="79">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="79">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="75">
+        <v>2</v>
+      </c>
+      <c r="CS7" s="75">
+        <v>2</v>
+      </c>
+      <c r="CT7" s="75">
+        <v>2</v>
+      </c>
+      <c r="CU7" s="68"/>
+    </row>
+    <row r="8" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68"/>
       <c r="B8" s="68"/>
       <c r="C8" s="77" t="s">
@@ -2743,12 +3469,12 @@
       <c r="L8" s="74">
         <v>4</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
       <c r="P8" s="74"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="75"/>
       <c r="T8" s="75"/>
       <c r="U8" s="75" t="s">
@@ -2783,8 +3509,126 @@
         <v>83</v>
       </c>
       <c r="BE8" s="68"/>
-    </row>
-    <row r="9" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="77">
+        <v>5</v>
+      </c>
+      <c r="BH8" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="77">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK8" s="77">
+        <v>5</v>
+      </c>
+      <c r="BL8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="74">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="79">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="75">
+        <v>2</v>
+      </c>
+      <c r="BY8" s="75">
+        <v>2</v>
+      </c>
+      <c r="BZ8" s="68"/>
+      <c r="CA8" s="68"/>
+      <c r="CB8" s="77">
+        <v>5</v>
+      </c>
+      <c r="CC8" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD8" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE8" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF8" s="77">
+        <v>5</v>
+      </c>
+      <c r="CG8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="74">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="79">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="75">
+        <v>2</v>
+      </c>
+      <c r="CT8" s="75">
+        <v>2</v>
+      </c>
+      <c r="CU8" s="68"/>
+    </row>
+    <row r="9" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="77" t="s">
@@ -2807,7 +3651,7 @@
       <c r="P9" s="74"/>
       <c r="Q9" s="74"/>
       <c r="R9" s="74"/>
-      <c r="S9" s="80"/>
+      <c r="S9" s="79"/>
       <c r="T9" s="75"/>
       <c r="U9" s="75" t="s">
         <v>83</v>
@@ -2841,8 +3685,130 @@
         <v>83</v>
       </c>
       <c r="BE9" s="68"/>
-    </row>
-    <row r="10" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="77">
+        <v>5</v>
+      </c>
+      <c r="BH9" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI9" s="77">
+        <v>5</v>
+      </c>
+      <c r="BJ9" s="77">
+        <v>5</v>
+      </c>
+      <c r="BK9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="74">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="79">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="75">
+        <v>2</v>
+      </c>
+      <c r="BY9" s="75">
+        <v>2</v>
+      </c>
+      <c r="BZ9" s="75">
+        <v>2</v>
+      </c>
+      <c r="CA9" s="68"/>
+      <c r="CB9" s="77">
+        <v>5</v>
+      </c>
+      <c r="CC9" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD9" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE9" s="77">
+        <v>5</v>
+      </c>
+      <c r="CF9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="74">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="79">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="75">
+        <v>2</v>
+      </c>
+      <c r="CT9" s="75">
+        <v>2</v>
+      </c>
+      <c r="CU9" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68"/>
       <c r="B10" s="77" t="s">
         <v>83</v>
@@ -2865,7 +3831,7 @@
       <c r="P10" s="74"/>
       <c r="Q10" s="74"/>
       <c r="R10" s="74"/>
-      <c r="S10" s="80"/>
+      <c r="S10" s="79"/>
       <c r="T10" s="75"/>
       <c r="U10" s="75"/>
       <c r="V10" s="75" t="s">
@@ -2899,8 +3865,130 @@
       <c r="BE10" s="69" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF10" s="68"/>
+      <c r="BG10" s="77">
+        <v>5</v>
+      </c>
+      <c r="BH10" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI10" s="77">
+        <v>5</v>
+      </c>
+      <c r="BJ10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="74">
+        <v>1</v>
+      </c>
+      <c r="BZ10" s="75">
+        <v>2</v>
+      </c>
+      <c r="CA10" s="68"/>
+      <c r="CB10" s="77">
+        <v>5</v>
+      </c>
+      <c r="CC10" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD10" s="77">
+        <v>5</v>
+      </c>
+      <c r="CE10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CF10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN10" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CR10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CT10" s="74">
+        <v>1</v>
+      </c>
+      <c r="CU10" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="77" t="s">
         <v>83</v>
@@ -2911,7 +3999,7 @@
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
-      <c r="I11" s="80"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="74">
@@ -2919,8 +4007,8 @@
       </c>
       <c r="M11" s="74"/>
       <c r="N11" s="74"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -2950,31 +4038,153 @@
       <c r="BE11" s="69" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="77">
+        <v>5</v>
+      </c>
+      <c r="BH11" s="77">
+        <v>5</v>
+      </c>
+      <c r="BI11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="79">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="79">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="89">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="74">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="76">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="72">
+        <v>7</v>
+      </c>
+      <c r="BY11" s="72">
+        <v>7</v>
+      </c>
+      <c r="BZ11" s="72">
+        <v>7</v>
+      </c>
+      <c r="CA11" s="68"/>
+      <c r="CB11" s="77">
+        <v>5</v>
+      </c>
+      <c r="CC11" s="77">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="79">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="79">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="74">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="76">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="72">
+        <v>7</v>
+      </c>
+      <c r="CT11" s="72">
+        <v>7</v>
+      </c>
+      <c r="CU11" s="72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="77">
         <v>-10</v>
       </c>
       <c r="C12" s="77">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D12" s="77">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E12" s="74">
         <v>-7</v>
       </c>
       <c r="F12" s="74">
-        <v>-6</v>
-      </c>
-      <c r="G12" s="80">
         <v>-5</v>
       </c>
-      <c r="H12" s="80">
+      <c r="G12" s="79">
         <v>-4</v>
       </c>
-      <c r="I12" s="80">
+      <c r="H12" s="79">
+        <v>-4</v>
+      </c>
+      <c r="I12" s="79">
         <v>-3</v>
       </c>
       <c r="J12" s="74">
@@ -2992,10 +4202,10 @@
       <c r="N12" s="74">
         <v>2</v>
       </c>
-      <c r="O12" s="80">
-        <v>3</v>
-      </c>
-      <c r="P12" s="80">
+      <c r="O12" s="79">
+        <v>3</v>
+      </c>
+      <c r="P12" s="79">
         <v>4</v>
       </c>
       <c r="Q12" s="74">
@@ -3004,7 +4214,7 @@
       <c r="R12" s="74">
         <v>6</v>
       </c>
-      <c r="S12" s="70">
+      <c r="S12" s="79">
         <v>7</v>
       </c>
       <c r="T12" s="72">
@@ -3080,8 +4290,130 @@
       <c r="BE12" s="70">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="86">
+        <v>10</v>
+      </c>
+      <c r="BQ12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="74">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="72">
+        <v>7</v>
+      </c>
+      <c r="BX12" s="73">
+        <v>3</v>
+      </c>
+      <c r="BY12" s="73">
+        <v>3</v>
+      </c>
+      <c r="BZ12" s="73">
+        <v>3</v>
+      </c>
+      <c r="CA12" s="68"/>
+      <c r="CB12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CQ12" s="74">
+        <v>1</v>
+      </c>
+      <c r="CR12" s="72">
+        <v>7</v>
+      </c>
+      <c r="CS12" s="73">
+        <v>3</v>
+      </c>
+      <c r="CT12" s="73">
+        <v>3</v>
+      </c>
+      <c r="CU12" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="74" t="s">
         <v>83</v>
@@ -3089,19 +4421,19 @@
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
       <c r="E13" s="74"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="74"/>
       <c r="L13" s="74">
         <v>-1</v>
       </c>
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="74"/>
       <c r="S13" s="72"/>
@@ -3136,8 +4468,130 @@
       <c r="BE13" s="69" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="82">
+        <v>13</v>
+      </c>
+      <c r="BH13" s="82">
+        <v>13</v>
+      </c>
+      <c r="BI13" s="78">
+        <v>6</v>
+      </c>
+      <c r="BJ13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="74">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="79">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="71">
+        <v>14</v>
+      </c>
+      <c r="BW13" s="73">
+        <v>3</v>
+      </c>
+      <c r="BX13" s="73">
+        <v>3</v>
+      </c>
+      <c r="BY13" s="73">
+        <v>3</v>
+      </c>
+      <c r="BZ13" s="73">
+        <v>3</v>
+      </c>
+      <c r="CA13" s="68"/>
+      <c r="CB13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="78">
+        <v>6</v>
+      </c>
+      <c r="CE13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="74">
+        <v>1</v>
+      </c>
+      <c r="CK13" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL13" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="79">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="73">
+        <v>3</v>
+      </c>
+      <c r="CS13" s="73">
+        <v>3</v>
+      </c>
+      <c r="CT13" s="73">
+        <v>3</v>
+      </c>
+      <c r="CU13" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="74" t="s">
         <v>83</v>
@@ -3147,20 +4601,20 @@
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="78"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="74"/>
       <c r="L14" s="74">
         <v>-2</v>
       </c>
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
       <c r="R14" s="71"/>
       <c r="S14" s="73"/>
       <c r="T14" s="73"/>
@@ -3200,8 +4654,126 @@
       <c r="BE14" s="69" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF14" s="68"/>
+      <c r="BG14" s="76">
+        <v>4</v>
+      </c>
+      <c r="BH14" s="76">
+        <v>4</v>
+      </c>
+      <c r="BI14" s="78">
+        <v>6</v>
+      </c>
+      <c r="BJ14" s="74">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="74">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="74">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="72">
+        <v>7</v>
+      </c>
+      <c r="BV14" s="73">
+        <v>3</v>
+      </c>
+      <c r="BW14" s="73">
+        <v>3</v>
+      </c>
+      <c r="BX14" s="73">
+        <v>3</v>
+      </c>
+      <c r="BY14" s="73">
+        <v>3</v>
+      </c>
+      <c r="BZ14" s="68"/>
+      <c r="CA14" s="68"/>
+      <c r="CB14" s="76">
+        <v>4</v>
+      </c>
+      <c r="CC14" s="76">
+        <v>4</v>
+      </c>
+      <c r="CD14" s="78">
+        <v>6</v>
+      </c>
+      <c r="CE14" s="74">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="74">
+        <v>1</v>
+      </c>
+      <c r="CG14" s="74">
+        <v>1</v>
+      </c>
+      <c r="CH14" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL14" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM14" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN14" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="72">
+        <v>7</v>
+      </c>
+      <c r="CQ14" s="73">
+        <v>3</v>
+      </c>
+      <c r="CR14" s="73">
+        <v>3</v>
+      </c>
+      <c r="CS14" s="73">
+        <v>3</v>
+      </c>
+      <c r="CT14" s="73">
+        <v>3</v>
+      </c>
+      <c r="CU14" s="68"/>
+    </row>
+    <row r="15" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="68"/>
       <c r="C15" s="76" t="s">
@@ -3212,16 +4784,16 @@
       <c r="F15" s="74"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
       <c r="L15" s="74">
         <v>-3</v>
       </c>
       <c r="M15" s="74"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="73"/>
       <c r="S15" s="73"/>
@@ -3262,8 +4834,126 @@
         <v>83</v>
       </c>
       <c r="BE15" s="68"/>
-    </row>
-    <row r="16" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="76">
+        <v>4</v>
+      </c>
+      <c r="BH15" s="76">
+        <v>4</v>
+      </c>
+      <c r="BI15" s="76">
+        <v>4</v>
+      </c>
+      <c r="BJ15" s="78">
+        <v>6</v>
+      </c>
+      <c r="BK15" s="74">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="74">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="79">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="72">
+        <v>7</v>
+      </c>
+      <c r="BV15" s="73">
+        <v>3</v>
+      </c>
+      <c r="BW15" s="73">
+        <v>3</v>
+      </c>
+      <c r="BX15" s="73">
+        <v>3</v>
+      </c>
+      <c r="BY15" s="73">
+        <v>3</v>
+      </c>
+      <c r="BZ15" s="68"/>
+      <c r="CA15" s="68"/>
+      <c r="CB15" s="76">
+        <v>4</v>
+      </c>
+      <c r="CC15" s="76">
+        <v>4</v>
+      </c>
+      <c r="CD15" s="76">
+        <v>4</v>
+      </c>
+      <c r="CE15" s="78">
+        <v>6</v>
+      </c>
+      <c r="CF15" s="74">
+        <v>1</v>
+      </c>
+      <c r="CG15" s="74">
+        <v>1</v>
+      </c>
+      <c r="CH15" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="79">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="72">
+        <v>7</v>
+      </c>
+      <c r="CQ15" s="73">
+        <v>3</v>
+      </c>
+      <c r="CR15" s="73">
+        <v>3</v>
+      </c>
+      <c r="CS15" s="73">
+        <v>3</v>
+      </c>
+      <c r="CT15" s="73">
+        <v>3</v>
+      </c>
+      <c r="CU15" s="68"/>
+    </row>
+    <row r="16" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="68"/>
       <c r="C16" s="76" t="s">
@@ -3274,16 +4964,16 @@
       <c r="F16" s="78"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
       <c r="L16" s="74">
         <v>-4</v>
       </c>
       <c r="M16" s="74"/>
       <c r="N16" s="74"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
       <c r="Q16" s="72"/>
       <c r="R16" s="73"/>
       <c r="S16" s="73"/>
@@ -3324,8 +5014,118 @@
         <v>83</v>
       </c>
       <c r="BE16" s="68"/>
-    </row>
-    <row r="17" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="76">
+        <v>4</v>
+      </c>
+      <c r="BI16" s="76">
+        <v>4</v>
+      </c>
+      <c r="BJ16" s="78">
+        <v>6</v>
+      </c>
+      <c r="BK16" s="74">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="74">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="74">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR16" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="72">
+        <v>7</v>
+      </c>
+      <c r="BU16" s="73">
+        <v>3</v>
+      </c>
+      <c r="BV16" s="73">
+        <v>3</v>
+      </c>
+      <c r="BW16" s="73">
+        <v>3</v>
+      </c>
+      <c r="BX16" s="73">
+        <v>3</v>
+      </c>
+      <c r="BY16" s="68"/>
+      <c r="BZ16" s="68"/>
+      <c r="CA16" s="68"/>
+      <c r="CB16" s="68"/>
+      <c r="CC16" s="76">
+        <v>4</v>
+      </c>
+      <c r="CD16" s="76">
+        <v>4</v>
+      </c>
+      <c r="CE16" s="78">
+        <v>6</v>
+      </c>
+      <c r="CF16" s="74">
+        <v>1</v>
+      </c>
+      <c r="CG16" s="74">
+        <v>1</v>
+      </c>
+      <c r="CH16" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="74">
+        <v>1</v>
+      </c>
+      <c r="CL16" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM16" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN16" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="72">
+        <v>7</v>
+      </c>
+      <c r="CP16" s="73">
+        <v>3</v>
+      </c>
+      <c r="CQ16" s="73">
+        <v>3</v>
+      </c>
+      <c r="CR16" s="73">
+        <v>3</v>
+      </c>
+      <c r="CS16" s="73">
+        <v>3</v>
+      </c>
+      <c r="CT16" s="68"/>
+      <c r="CU16" s="68"/>
+    </row>
+    <row r="17" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
@@ -3336,15 +5136,15 @@
       <c r="F17" s="78"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
       <c r="L17" s="74">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M17" s="74"/>
       <c r="N17" s="74"/>
-      <c r="O17" s="80"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
@@ -3354,7 +5154,7 @@
       </c>
       <c r="U17" s="68"/>
       <c r="V17" s="68"/>
-      <c r="Y17" s="80"/>
+      <c r="Y17" s="79"/>
       <c r="Z17" t="s">
         <v>86</v>
       </c>
@@ -3386,8 +5186,118 @@
       </c>
       <c r="BD17" s="68"/>
       <c r="BE17" s="68"/>
-    </row>
-    <row r="18" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="85">
+        <v>12</v>
+      </c>
+      <c r="BI17" s="76">
+        <v>4</v>
+      </c>
+      <c r="BJ17" s="76">
+        <v>4</v>
+      </c>
+      <c r="BK17" s="78">
+        <v>6</v>
+      </c>
+      <c r="BL17" s="79">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="79">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="79">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR17" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS17" s="79">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="72">
+        <v>7</v>
+      </c>
+      <c r="BU17" s="87">
+        <v>15</v>
+      </c>
+      <c r="BV17" s="73">
+        <v>3</v>
+      </c>
+      <c r="BW17" s="73">
+        <v>3</v>
+      </c>
+      <c r="BX17" s="71">
+        <v>4</v>
+      </c>
+      <c r="BY17" s="68"/>
+      <c r="BZ17" s="68"/>
+      <c r="CA17" s="68"/>
+      <c r="CB17" s="68"/>
+      <c r="CC17" s="76">
+        <v>4</v>
+      </c>
+      <c r="CD17" s="76">
+        <v>4</v>
+      </c>
+      <c r="CE17" s="76">
+        <v>4</v>
+      </c>
+      <c r="CF17" s="78">
+        <v>6</v>
+      </c>
+      <c r="CG17" s="79">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="79">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="79">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM17" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN17" s="79">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="72">
+        <v>7</v>
+      </c>
+      <c r="CP17" s="73">
+        <v>3</v>
+      </c>
+      <c r="CQ17" s="73">
+        <v>3</v>
+      </c>
+      <c r="CR17" s="73">
+        <v>3</v>
+      </c>
+      <c r="CS17" s="73">
+        <v>3</v>
+      </c>
+      <c r="CT17" s="68"/>
+      <c r="CU17" s="68"/>
+    </row>
+    <row r="18" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -3397,16 +5307,16 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="78"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80">
-        <v>-6</v>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79">
+        <v>-5</v>
       </c>
       <c r="M18" s="74"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="80"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="73"/>
       <c r="R18" s="73"/>
@@ -3448,8 +5358,110 @@
       </c>
       <c r="BD18" s="68"/>
       <c r="BE18" s="68"/>
-    </row>
-    <row r="19" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="85">
+        <v>12</v>
+      </c>
+      <c r="BJ18" s="76">
+        <v>4</v>
+      </c>
+      <c r="BK18" s="76">
+        <v>4</v>
+      </c>
+      <c r="BL18" s="78">
+        <v>6</v>
+      </c>
+      <c r="BM18" s="78">
+        <v>6</v>
+      </c>
+      <c r="BN18" s="78">
+        <v>6</v>
+      </c>
+      <c r="BO18" s="79">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="74">
+        <v>1</v>
+      </c>
+      <c r="BT18" s="72">
+        <v>7</v>
+      </c>
+      <c r="BU18" s="73">
+        <v>3</v>
+      </c>
+      <c r="BV18" s="73">
+        <v>3</v>
+      </c>
+      <c r="BW18" s="73">
+        <v>3</v>
+      </c>
+      <c r="BX18" s="68"/>
+      <c r="BY18" s="68"/>
+      <c r="BZ18" s="68"/>
+      <c r="CA18" s="68"/>
+      <c r="CB18" s="68"/>
+      <c r="CC18" s="68"/>
+      <c r="CD18" s="76">
+        <v>4</v>
+      </c>
+      <c r="CE18" s="76">
+        <v>4</v>
+      </c>
+      <c r="CF18" s="76">
+        <v>4</v>
+      </c>
+      <c r="CG18" s="78">
+        <v>6</v>
+      </c>
+      <c r="CH18" s="78">
+        <v>6</v>
+      </c>
+      <c r="CI18" s="78">
+        <v>6</v>
+      </c>
+      <c r="CJ18" s="79">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM18" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="74">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="72">
+        <v>7</v>
+      </c>
+      <c r="CP18" s="73">
+        <v>3</v>
+      </c>
+      <c r="CQ18" s="73">
+        <v>3</v>
+      </c>
+      <c r="CR18" s="73">
+        <v>3</v>
+      </c>
+      <c r="CS18" s="68"/>
+      <c r="CT18" s="68"/>
+      <c r="CU18" s="68"/>
+    </row>
+    <row r="19" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
@@ -3462,8 +5474,8 @@
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80">
+      <c r="K19" s="79"/>
+      <c r="L19" s="79">
         <v>-7</v>
       </c>
       <c r="M19" s="2"/>
@@ -3510,8 +5522,102 @@
       <c r="BC19" s="68"/>
       <c r="BD19" s="68"/>
       <c r="BE19" s="68"/>
-    </row>
-    <row r="20" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="85">
+        <v>12</v>
+      </c>
+      <c r="BK19" s="76">
+        <v>4</v>
+      </c>
+      <c r="BL19" s="76">
+        <v>4</v>
+      </c>
+      <c r="BM19" s="76">
+        <v>4</v>
+      </c>
+      <c r="BN19" s="76">
+        <v>4</v>
+      </c>
+      <c r="BO19" s="78">
+        <v>6</v>
+      </c>
+      <c r="BP19" s="79">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="74">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="74">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="90">
+        <v>100</v>
+      </c>
+      <c r="BT19" s="72">
+        <v>7</v>
+      </c>
+      <c r="BU19" s="73">
+        <v>3</v>
+      </c>
+      <c r="BV19" s="71">
+        <v>4</v>
+      </c>
+      <c r="BW19" s="68"/>
+      <c r="BX19" s="68"/>
+      <c r="BY19" s="68"/>
+      <c r="BZ19" s="68"/>
+      <c r="CA19" s="68"/>
+      <c r="CB19" s="68"/>
+      <c r="CC19" s="68"/>
+      <c r="CD19" s="68"/>
+      <c r="CE19" s="76">
+        <v>4</v>
+      </c>
+      <c r="CF19" s="76">
+        <v>4</v>
+      </c>
+      <c r="CG19" s="76">
+        <v>4</v>
+      </c>
+      <c r="CH19" s="76">
+        <v>4</v>
+      </c>
+      <c r="CI19" s="76">
+        <v>4</v>
+      </c>
+      <c r="CJ19" s="78">
+        <v>6</v>
+      </c>
+      <c r="CK19" s="79">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="74">
+        <v>1</v>
+      </c>
+      <c r="CM19" s="74">
+        <v>1</v>
+      </c>
+      <c r="CN19" s="74">
+        <v>1</v>
+      </c>
+      <c r="CO19" s="72">
+        <v>7</v>
+      </c>
+      <c r="CP19" s="73">
+        <v>3</v>
+      </c>
+      <c r="CQ19" s="73">
+        <v>3</v>
+      </c>
+      <c r="CR19" s="68"/>
+      <c r="CS19" s="68"/>
+      <c r="CT19" s="68"/>
+      <c r="CU19" s="68"/>
+    </row>
+    <row r="20" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -3527,8 +5633,8 @@
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="80">
-        <v>-8</v>
+      <c r="L20" s="79">
+        <v>-7</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3580,8 +5686,86 @@
       <c r="BC20" s="68"/>
       <c r="BD20" s="68"/>
       <c r="BE20" s="68"/>
-    </row>
-    <row r="21" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="68"/>
+      <c r="BJ20" s="68"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BM20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BN20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BO20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BP20" s="78">
+        <v>6</v>
+      </c>
+      <c r="BQ20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BR20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BS20" s="76">
+        <v>4</v>
+      </c>
+      <c r="BT20" s="72">
+        <v>7</v>
+      </c>
+      <c r="BU20" s="68"/>
+      <c r="BV20" s="68"/>
+      <c r="BW20" s="68"/>
+      <c r="BX20" s="68"/>
+      <c r="BY20" s="68"/>
+      <c r="BZ20" s="68"/>
+      <c r="CA20" s="68"/>
+      <c r="CB20" s="68"/>
+      <c r="CC20" s="68"/>
+      <c r="CD20" s="68"/>
+      <c r="CE20" s="68"/>
+      <c r="CF20" s="68"/>
+      <c r="CG20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CH20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CI20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CJ20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CK20" s="78">
+        <v>6</v>
+      </c>
+      <c r="CL20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CM20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CN20" s="76">
+        <v>4</v>
+      </c>
+      <c r="CO20" s="72">
+        <v>7</v>
+      </c>
+      <c r="CP20" s="68"/>
+      <c r="CQ20" s="68"/>
+      <c r="CR20" s="68"/>
+      <c r="CS20" s="68"/>
+      <c r="CT20" s="68"/>
+      <c r="CU20" s="68"/>
+    </row>
+    <row r="21" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -3598,7 +5782,7 @@
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
       <c r="L21" s="78">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
@@ -3650,8 +5834,70 @@
       <c r="BC21" s="68"/>
       <c r="BD21" s="68"/>
       <c r="BE21" s="68"/>
-    </row>
-    <row r="22" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="76">
+        <v>4</v>
+      </c>
+      <c r="BO21" s="76">
+        <v>4</v>
+      </c>
+      <c r="BP21" s="76">
+        <v>4</v>
+      </c>
+      <c r="BQ21" s="78">
+        <v>6</v>
+      </c>
+      <c r="BR21" s="76">
+        <v>4</v>
+      </c>
+      <c r="BS21" s="68"/>
+      <c r="BT21" s="68"/>
+      <c r="BU21" s="68"/>
+      <c r="BV21" s="68"/>
+      <c r="BW21" s="68"/>
+      <c r="BX21" s="68"/>
+      <c r="BY21" s="68"/>
+      <c r="BZ21" s="68"/>
+      <c r="CA21" s="68"/>
+      <c r="CB21" s="68"/>
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="68"/>
+      <c r="CE21" s="68"/>
+      <c r="CF21" s="68"/>
+      <c r="CG21" s="68"/>
+      <c r="CH21" s="68"/>
+      <c r="CI21" s="76">
+        <v>4</v>
+      </c>
+      <c r="CJ21" s="76">
+        <v>4</v>
+      </c>
+      <c r="CK21" s="76">
+        <v>4</v>
+      </c>
+      <c r="CL21" s="78">
+        <v>6</v>
+      </c>
+      <c r="CM21" s="76">
+        <v>4</v>
+      </c>
+      <c r="CN21" s="68"/>
+      <c r="CO21" s="68"/>
+      <c r="CP21" s="68"/>
+      <c r="CQ21" s="68"/>
+      <c r="CR21" s="68"/>
+      <c r="CS21" s="68"/>
+      <c r="CT21" s="68"/>
+      <c r="CU21" s="68"/>
+    </row>
+    <row r="22" spans="1:99" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
@@ -3721,8 +5967,8 @@
       <c r="BD22" s="68"/>
       <c r="BE22" s="68"/>
     </row>
-    <row r="23" spans="1:57" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:99" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -3755,7 +6001,7 @@
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -3768,12 +6014,12 @@
       <c r="I27" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80">
-        <v>9</v>
-      </c>
-      <c r="M27" s="80"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79">
+        <v>8</v>
+      </c>
+      <c r="M27" s="79"/>
       <c r="N27" s="75"/>
       <c r="O27" s="75" t="s">
         <v>83</v>
@@ -3788,7 +6034,7 @@
       <c r="U27" s="68"/>
       <c r="V27" s="68"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -3801,12 +6047,12 @@
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="74"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80">
-        <v>8</v>
-      </c>
-      <c r="M28" s="80"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79">
+        <v>7</v>
+      </c>
+      <c r="M28" s="79"/>
       <c r="N28" s="75"/>
       <c r="O28" s="75"/>
       <c r="P28" s="75"/>
@@ -3821,7 +6067,7 @@
       <c r="U28" s="68"/>
       <c r="V28" s="68"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -3832,13 +6078,13 @@
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
       <c r="I29" s="74"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80">
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79">
         <v>7</v>
       </c>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
       <c r="O29" s="75"/>
       <c r="P29" s="75"/>
       <c r="Q29" s="75"/>
@@ -3850,7 +6096,7 @@
       <c r="U29" s="68"/>
       <c r="V29" s="68"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
       <c r="D30" s="71" t="s">
@@ -3861,14 +6107,14 @@
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
       <c r="I30" s="74"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80">
-        <v>6</v>
-      </c>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79">
+        <v>5</v>
+      </c>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
       <c r="P30" s="75"/>
       <c r="Q30" s="75"/>
       <c r="R30" s="75"/>
@@ -3879,7 +6125,7 @@
       <c r="U30" s="68"/>
       <c r="V30" s="68"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
       <c r="D31" s="77" t="s">
@@ -3890,16 +6136,16 @@
       <c r="G31" s="77"/>
       <c r="H31" s="77"/>
       <c r="I31" s="74"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80">
-        <v>5</v>
-      </c>
-      <c r="M31" s="80"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79">
+        <v>4</v>
+      </c>
+      <c r="M31" s="79"/>
       <c r="N31" s="74"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
       <c r="R31" s="75"/>
       <c r="S31" s="75"/>
       <c r="T31" s="75" t="s">
@@ -3908,7 +6154,7 @@
       <c r="U31" s="68"/>
       <c r="V31" s="68"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B32" s="68"/>
       <c r="C32" s="77" t="s">
         <v>83</v>
@@ -3924,12 +6170,12 @@
       <c r="L32" s="74">
         <v>4</v>
       </c>
-      <c r="M32" s="80"/>
+      <c r="M32" s="79"/>
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
       <c r="P32" s="74"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
       <c r="S32" s="75"/>
       <c r="T32" s="75"/>
       <c r="U32" s="75" t="s">
@@ -3937,7 +6183,7 @@
       </c>
       <c r="V32" s="68"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="68"/>
       <c r="C33" s="77" t="s">
         <v>83</v>
@@ -3959,14 +6205,14 @@
       <c r="P33" s="74"/>
       <c r="Q33" s="74"/>
       <c r="R33" s="74"/>
-      <c r="S33" s="80"/>
+      <c r="S33" s="79"/>
       <c r="T33" s="75"/>
       <c r="U33" s="75" t="s">
         <v>83</v>
       </c>
       <c r="V33" s="68"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>83</v>
       </c>
@@ -3988,14 +6234,14 @@
       <c r="P34" s="74"/>
       <c r="Q34" s="74"/>
       <c r="R34" s="74"/>
-      <c r="S34" s="80"/>
+      <c r="S34" s="79"/>
       <c r="T34" s="75"/>
       <c r="U34" s="75"/>
       <c r="V34" s="75" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="77" t="s">
         <v>83</v>
       </c>
@@ -4005,7 +6251,7 @@
       <c r="F35" s="74"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
-      <c r="I35" s="80"/>
+      <c r="I35" s="79"/>
       <c r="J35" s="74"/>
       <c r="K35" s="74"/>
       <c r="L35" s="74">
@@ -4013,8 +6259,8 @@
       </c>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -4024,29 +6270,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="77">
         <v>-10</v>
       </c>
       <c r="C36" s="77">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D36" s="77">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E36" s="74">
         <v>-7</v>
       </c>
       <c r="F36" s="74">
-        <v>-6</v>
-      </c>
-      <c r="G36" s="80">
         <v>-5</v>
       </c>
-      <c r="H36" s="80">
+      <c r="G36" s="79">
         <v>-4</v>
       </c>
-      <c r="I36" s="80">
+      <c r="H36" s="79">
+        <v>-4</v>
+      </c>
+      <c r="I36" s="79">
         <v>-3</v>
       </c>
       <c r="J36" s="74">
@@ -4064,51 +6310,51 @@
       <c r="N36" s="74">
         <v>2</v>
       </c>
-      <c r="O36" s="80">
-        <v>3</v>
-      </c>
-      <c r="P36" s="80">
+      <c r="O36" s="79">
+        <v>3</v>
+      </c>
+      <c r="P36" s="79">
         <v>4</v>
       </c>
       <c r="Q36" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" s="74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S36" s="70">
         <v>7</v>
       </c>
       <c r="T36" s="72">
+        <v>7</v>
+      </c>
+      <c r="U36" s="72">
         <v>8</v>
-      </c>
-      <c r="U36" s="72">
-        <v>9</v>
       </c>
       <c r="V36" s="72">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="74" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="74"/>
       <c r="D37" s="74"/>
       <c r="E37" s="74"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
       <c r="K37" s="74"/>
       <c r="L37" s="74">
         <v>-1</v>
       </c>
       <c r="M37" s="74"/>
       <c r="N37" s="74"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
       <c r="Q37" s="74"/>
       <c r="R37" s="74"/>
       <c r="S37" s="72"/>
@@ -4118,7 +6364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="74" t="s">
         <v>83</v>
       </c>
@@ -4127,20 +6373,20 @@
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="78"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
       <c r="K38" s="74"/>
       <c r="L38" s="74">
         <v>-2</v>
       </c>
       <c r="M38" s="74"/>
       <c r="N38" s="74"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
       <c r="R38" s="71"/>
       <c r="S38" s="73"/>
       <c r="T38" s="73"/>
@@ -4149,7 +6395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="68"/>
       <c r="C39" s="76" t="s">
         <v>83</v>
@@ -4159,16 +6405,16 @@
       <c r="F39" s="74"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
       <c r="L39" s="74">
         <v>-3</v>
       </c>
       <c r="M39" s="74"/>
       <c r="N39" s="74"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
       <c r="Q39" s="72"/>
       <c r="R39" s="73"/>
       <c r="S39" s="73"/>
@@ -4178,7 +6424,7 @@
       </c>
       <c r="V39" s="68"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="68"/>
       <c r="C40" s="76" t="s">
         <v>83</v>
@@ -4188,16 +6434,16 @@
       <c r="F40" s="78"/>
       <c r="G40" s="74"/>
       <c r="H40" s="74"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
       <c r="L40" s="74">
         <v>-4</v>
       </c>
       <c r="M40" s="74"/>
       <c r="N40" s="74"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
       <c r="Q40" s="72"/>
       <c r="R40" s="73"/>
       <c r="S40" s="73"/>
@@ -4207,7 +6453,7 @@
       </c>
       <c r="V40" s="68"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="68"/>
       <c r="C41" s="68"/>
       <c r="D41" s="76" t="s">
@@ -4217,15 +6463,15 @@
       <c r="F41" s="78"/>
       <c r="G41" s="74"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
       <c r="L41" s="74">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M41" s="74"/>
       <c r="N41" s="74"/>
-      <c r="O41" s="80"/>
+      <c r="O41" s="79"/>
       <c r="P41" s="72"/>
       <c r="Q41" s="73"/>
       <c r="R41" s="73"/>
@@ -4236,7 +6482,7 @@
       <c r="U41" s="68"/>
       <c r="V41" s="68"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="68"/>
       <c r="C42" s="68"/>
       <c r="D42" s="71" t="s">
@@ -4245,16 +6491,16 @@
       <c r="E42" s="76"/>
       <c r="F42" s="76"/>
       <c r="G42" s="78"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80">
-        <v>-6</v>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79">
+        <v>-5</v>
       </c>
       <c r="M42" s="74"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="80"/>
+      <c r="O42" s="79"/>
       <c r="P42" s="72"/>
       <c r="Q42" s="73"/>
       <c r="R42" s="73"/>
@@ -4265,7 +6511,7 @@
       <c r="U42" s="68"/>
       <c r="V42" s="68"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="68"/>
       <c r="C43" s="68"/>
       <c r="D43" s="68"/>
@@ -4277,8 +6523,8 @@
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
       <c r="J43" s="78"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80">
+      <c r="K43" s="79"/>
+      <c r="L43" s="79">
         <v>-7</v>
       </c>
       <c r="M43" s="2"/>
@@ -4294,7 +6540,7 @@
       <c r="U43" s="68"/>
       <c r="V43" s="68"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="68"/>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
@@ -4309,8 +6555,8 @@
       <c r="I44" s="76"/>
       <c r="J44" s="76"/>
       <c r="K44" s="78"/>
-      <c r="L44" s="80">
-        <v>-8</v>
+      <c r="L44" s="79">
+        <v>-7</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -4327,7 +6573,7 @@
       <c r="U44" s="68"/>
       <c r="V44" s="68"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
@@ -4343,7 +6589,7 @@
       <c r="J45" s="76"/>
       <c r="K45" s="76"/>
       <c r="L45" s="78">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="M45" s="76"/>
       <c r="N45" s="76"/>
@@ -4360,7 +6606,7 @@
       <c r="U45" s="68"/>
       <c r="V45" s="68"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="68"/>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
@@ -4399,20 +6645,21 @@
     <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U21"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="68"/>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -4445,7 +6692,7 @@
       <c r="T1" s="68"/>
       <c r="U1" s="68"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -4453,21 +6700,21 @@
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
       <c r="G2" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="74">
         <v>1</v>
       </c>
-      <c r="I2" s="80">
-        <v>0</v>
-      </c>
-      <c r="J2" s="80">
-        <v>0</v>
-      </c>
-      <c r="K2" s="80">
-        <v>0</v>
-      </c>
-      <c r="L2" s="80">
+      <c r="I2" s="79">
+        <v>0</v>
+      </c>
+      <c r="J2" s="79">
+        <v>0</v>
+      </c>
+      <c r="K2" s="79">
+        <v>0</v>
+      </c>
+      <c r="L2" s="79">
         <v>0</v>
       </c>
       <c r="M2" s="75">
@@ -4486,33 +6733,33 @@
       <c r="T2" s="68"/>
       <c r="U2" s="68"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="71">
-        <v>4</v>
+      <c r="E3" s="77">
+        <v>5</v>
       </c>
       <c r="F3" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="74">
         <v>1</v>
       </c>
-      <c r="I3" s="80">
-        <v>0</v>
-      </c>
-      <c r="J3" s="80">
-        <v>0</v>
-      </c>
-      <c r="K3" s="80">
-        <v>0</v>
-      </c>
-      <c r="L3" s="80">
+      <c r="I3" s="79">
+        <v>0</v>
+      </c>
+      <c r="J3" s="79">
+        <v>0</v>
+      </c>
+      <c r="K3" s="79">
+        <v>0</v>
+      </c>
+      <c r="L3" s="79">
         <v>0</v>
       </c>
       <c r="M3" s="75">
@@ -4527,46 +6774,46 @@
       <c r="P3" s="75">
         <v>2</v>
       </c>
-      <c r="Q3" s="71">
-        <v>4</v>
+      <c r="Q3" s="75">
+        <v>2</v>
       </c>
       <c r="R3" s="68"/>
       <c r="S3" s="68"/>
       <c r="T3" s="68"/>
       <c r="U3" s="68"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
-        <v>0</v>
-      </c>
-      <c r="J4" s="80">
-        <v>0</v>
-      </c>
-      <c r="K4" s="80">
-        <v>0</v>
-      </c>
-      <c r="L4" s="80">
-        <v>0</v>
-      </c>
-      <c r="M4" s="80">
+      <c r="I4" s="79">
+        <v>0</v>
+      </c>
+      <c r="J4" s="79">
+        <v>0</v>
+      </c>
+      <c r="K4" s="79">
+        <v>0</v>
+      </c>
+      <c r="L4" s="79">
+        <v>0</v>
+      </c>
+      <c r="M4" s="79">
         <v>0</v>
       </c>
       <c r="N4" s="75">
@@ -4588,43 +6835,43 @@
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
-      <c r="C5" s="71">
-        <v>4</v>
+      <c r="C5" s="77">
+        <v>5</v>
       </c>
       <c r="D5" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="74">
         <v>1</v>
       </c>
-      <c r="I5" s="80">
-        <v>0</v>
-      </c>
-      <c r="J5" s="80">
-        <v>0</v>
-      </c>
-      <c r="K5" s="80">
-        <v>0</v>
-      </c>
-      <c r="L5" s="80">
-        <v>0</v>
-      </c>
-      <c r="M5" s="80">
-        <v>0</v>
-      </c>
-      <c r="N5" s="80">
+      <c r="I5" s="79">
+        <v>0</v>
+      </c>
+      <c r="J5" s="79">
+        <v>0</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0</v>
+      </c>
+      <c r="L5" s="79">
+        <v>0</v>
+      </c>
+      <c r="M5" s="79">
+        <v>0</v>
+      </c>
+      <c r="N5" s="79">
         <v>0</v>
       </c>
       <c r="O5" s="75">
@@ -4639,55 +6886,55 @@
       <c r="R5" s="75">
         <v>2</v>
       </c>
-      <c r="S5" s="71">
-        <v>4</v>
+      <c r="S5" s="75">
+        <v>2</v>
       </c>
       <c r="T5" s="68"/>
       <c r="U5" s="68"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="68"/>
       <c r="B6" s="68"/>
       <c r="C6" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="74">
         <v>1</v>
       </c>
-      <c r="I6" s="80">
-        <v>0</v>
-      </c>
-      <c r="J6" s="80">
-        <v>0</v>
-      </c>
-      <c r="K6" s="80">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
+      <c r="I6" s="79">
+        <v>0</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="79">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79">
         <v>0</v>
       </c>
       <c r="M6" s="74">
         <v>1</v>
       </c>
-      <c r="N6" s="80">
-        <v>0</v>
-      </c>
-      <c r="O6" s="80">
-        <v>0</v>
-      </c>
-      <c r="P6" s="80">
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+      <c r="O6" s="79">
+        <v>0</v>
+      </c>
+      <c r="P6" s="79">
         <v>0</v>
       </c>
       <c r="Q6" s="75">
@@ -4702,25 +6949,25 @@
       <c r="T6" s="68"/>
       <c r="U6" s="68"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="68"/>
       <c r="B7" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="74">
         <v>1</v>
@@ -4734,7 +6981,7 @@
       <c r="K7" s="74">
         <v>1</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="79">
         <v>0</v>
       </c>
       <c r="M7" s="74">
@@ -4746,10 +6993,10 @@
       <c r="O7" s="74">
         <v>1</v>
       </c>
-      <c r="P7" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="80">
+      <c r="P7" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="79">
         <v>0</v>
       </c>
       <c r="R7" s="75">
@@ -4763,22 +7010,22 @@
       </c>
       <c r="U7" s="68"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="68"/>
       <c r="B8" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="74">
         <v>1</v>
@@ -4813,7 +7060,7 @@
       <c r="Q8" s="74">
         <v>1</v>
       </c>
-      <c r="R8" s="80">
+      <c r="R8" s="79">
         <v>0</v>
       </c>
       <c r="S8" s="75">
@@ -4824,21 +7071,21 @@
       </c>
       <c r="U8" s="68"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="77">
         <v>6</v>
       </c>
       <c r="B9" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="74">
         <v>1</v>
@@ -4876,7 +7123,7 @@
       <c r="Q9" s="74">
         <v>1</v>
       </c>
-      <c r="R9" s="80">
+      <c r="R9" s="79">
         <v>0</v>
       </c>
       <c r="S9" s="75">
@@ -4889,18 +7136,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="77">
         <v>6</v>
       </c>
       <c r="B10" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="74">
         <v>1</v>
@@ -4911,7 +7158,7 @@
       <c r="G10" s="74">
         <v>1</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="79">
         <v>0</v>
       </c>
       <c r="I10" s="74">
@@ -4929,187 +7176,187 @@
       <c r="M10" s="74">
         <v>1</v>
       </c>
-      <c r="N10" s="81">
-        <v>0</v>
-      </c>
-      <c r="O10" s="81">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="79">
+        <v>0</v>
+      </c>
+      <c r="P10" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="74">
+        <v>1</v>
+      </c>
+      <c r="R10" s="74">
+        <v>1</v>
+      </c>
+      <c r="S10" s="74">
+        <v>1</v>
+      </c>
+      <c r="T10" s="74">
         <v>1</v>
       </c>
       <c r="U10" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="77">
         <v>6</v>
       </c>
       <c r="B11" s="77">
+        <v>5</v>
+      </c>
+      <c r="C11" s="77">
+        <v>5</v>
+      </c>
+      <c r="D11" s="74">
+        <v>1</v>
+      </c>
+      <c r="E11" s="74">
+        <v>1</v>
+      </c>
+      <c r="F11" s="79">
+        <v>0</v>
+      </c>
+      <c r="G11" s="79">
+        <v>0</v>
+      </c>
+      <c r="H11" s="79">
+        <v>0</v>
+      </c>
+      <c r="I11" s="74">
+        <v>1</v>
+      </c>
+      <c r="J11" s="74">
+        <v>1</v>
+      </c>
+      <c r="K11" s="74">
+        <v>1</v>
+      </c>
+      <c r="L11" s="74">
+        <v>1</v>
+      </c>
+      <c r="M11" s="74">
+        <v>1</v>
+      </c>
+      <c r="N11" s="79">
+        <v>0</v>
+      </c>
+      <c r="O11" s="79">
+        <v>0</v>
+      </c>
+      <c r="P11" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="74">
+        <v>1</v>
+      </c>
+      <c r="R11" s="76">
+        <v>0</v>
+      </c>
+      <c r="S11" s="72">
+        <v>7</v>
+      </c>
+      <c r="T11" s="72">
+        <v>7</v>
+      </c>
+      <c r="U11" s="72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>1</v>
+      </c>
+      <c r="B12" s="74">
+        <v>1</v>
+      </c>
+      <c r="C12" s="74">
+        <v>1</v>
+      </c>
+      <c r="D12" s="74">
+        <v>1</v>
+      </c>
+      <c r="E12" s="79">
+        <v>0</v>
+      </c>
+      <c r="F12" s="79">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79">
+        <v>0</v>
+      </c>
+      <c r="H12" s="79">
+        <v>0</v>
+      </c>
+      <c r="I12" s="79">
+        <v>0</v>
+      </c>
+      <c r="J12" s="74">
+        <v>1</v>
+      </c>
+      <c r="K12" s="74">
+        <v>1</v>
+      </c>
+      <c r="L12" s="74">
+        <v>1</v>
+      </c>
+      <c r="M12" s="74">
+        <v>1</v>
+      </c>
+      <c r="N12" s="79">
+        <v>0</v>
+      </c>
+      <c r="O12" s="79">
+        <v>0</v>
+      </c>
+      <c r="P12" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="74">
+        <v>1</v>
+      </c>
+      <c r="R12" s="72">
+        <v>7</v>
+      </c>
+      <c r="S12" s="73">
+        <v>3</v>
+      </c>
+      <c r="T12" s="73">
+        <v>3</v>
+      </c>
+      <c r="U12" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>1</v>
+      </c>
+      <c r="B13" s="79">
+        <v>0</v>
+      </c>
+      <c r="C13" s="79">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
         <v>6</v>
       </c>
-      <c r="C11" s="77">
-        <v>6</v>
-      </c>
-      <c r="D11" s="74">
-        <v>1</v>
-      </c>
-      <c r="E11" s="74">
-        <v>1</v>
-      </c>
-      <c r="F11" s="80">
-        <v>0</v>
-      </c>
-      <c r="G11" s="80">
-        <v>0</v>
-      </c>
-      <c r="H11" s="80">
-        <v>0</v>
-      </c>
-      <c r="I11" s="74">
-        <v>1</v>
-      </c>
-      <c r="J11" s="74">
-        <v>1</v>
-      </c>
-      <c r="K11" s="74">
-        <v>1</v>
-      </c>
-      <c r="L11" s="74">
-        <v>1</v>
-      </c>
-      <c r="M11" s="74">
-        <v>1</v>
-      </c>
-      <c r="N11" s="80">
-        <v>0</v>
-      </c>
-      <c r="O11" s="80">
-        <v>0</v>
-      </c>
-      <c r="P11" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="74">
-        <v>1</v>
-      </c>
-      <c r="R11" s="70">
-        <v>10</v>
-      </c>
-      <c r="S11" s="72">
-        <v>9</v>
-      </c>
-      <c r="T11" s="72">
-        <v>9</v>
-      </c>
-      <c r="U11" s="72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="74">
-        <v>1</v>
-      </c>
-      <c r="B12" s="74">
-        <v>1</v>
-      </c>
-      <c r="C12" s="74">
-        <v>1</v>
-      </c>
-      <c r="D12" s="74">
-        <v>1</v>
-      </c>
-      <c r="E12" s="80">
-        <v>0</v>
-      </c>
-      <c r="F12" s="80">
-        <v>0</v>
-      </c>
-      <c r="G12" s="80">
-        <v>0</v>
-      </c>
-      <c r="H12" s="80">
-        <v>0</v>
-      </c>
-      <c r="I12" s="80">
-        <v>0</v>
-      </c>
-      <c r="J12" s="74">
-        <v>1</v>
-      </c>
-      <c r="K12" s="74">
-        <v>1</v>
-      </c>
-      <c r="L12" s="74">
-        <v>1</v>
-      </c>
-      <c r="M12" s="74">
-        <v>1</v>
-      </c>
-      <c r="N12" s="80">
-        <v>0</v>
-      </c>
-      <c r="O12" s="80">
-        <v>0</v>
-      </c>
-      <c r="P12" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="74">
-        <v>1</v>
-      </c>
-      <c r="R12" s="72">
-        <v>9</v>
-      </c>
-      <c r="S12" s="4">
-        <v>3</v>
-      </c>
-      <c r="T12" s="4">
-        <v>3</v>
-      </c>
-      <c r="U12" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="74">
-        <v>1</v>
-      </c>
-      <c r="B13" s="79">
-        <v>7</v>
-      </c>
-      <c r="C13" s="79">
-        <v>7</v>
-      </c>
-      <c r="D13" s="78">
-        <v>8</v>
-      </c>
-      <c r="E13" s="80">
-        <v>0</v>
-      </c>
-      <c r="F13" s="80">
-        <v>0</v>
-      </c>
-      <c r="G13" s="80">
-        <v>0</v>
-      </c>
-      <c r="H13" s="80">
-        <v>0</v>
-      </c>
-      <c r="I13" s="80">
+      <c r="E13" s="79">
+        <v>0</v>
+      </c>
+      <c r="F13" s="79">
+        <v>0</v>
+      </c>
+      <c r="G13" s="79">
+        <v>0</v>
+      </c>
+      <c r="H13" s="79">
+        <v>0</v>
+      </c>
+      <c r="I13" s="79">
         <v>0</v>
       </c>
       <c r="J13" s="74">
@@ -5124,17 +7371,17 @@
       <c r="M13" s="74">
         <v>1</v>
       </c>
-      <c r="N13" s="80">
-        <v>0</v>
-      </c>
-      <c r="O13" s="80">
-        <v>0</v>
-      </c>
-      <c r="P13" s="80">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="71">
-        <v>4</v>
+      <c r="N13" s="79">
+        <v>0</v>
+      </c>
+      <c r="O13" s="79">
+        <v>0</v>
+      </c>
+      <c r="P13" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="79">
+        <v>0</v>
       </c>
       <c r="R13" s="73">
         <v>3</v>
@@ -5149,16 +7396,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="74">
         <v>1</v>
@@ -5169,13 +7416,13 @@
       <c r="G14" s="74">
         <v>1</v>
       </c>
-      <c r="H14" s="81">
-        <v>0</v>
-      </c>
-      <c r="I14" s="80">
-        <v>0</v>
-      </c>
-      <c r="J14" s="80">
+      <c r="H14" s="79">
+        <v>0</v>
+      </c>
+      <c r="I14" s="79">
+        <v>0</v>
+      </c>
+      <c r="J14" s="79">
         <v>0</v>
       </c>
       <c r="K14" s="74">
@@ -5187,14 +7434,14 @@
       <c r="M14" s="74">
         <v>1</v>
       </c>
-      <c r="N14" s="80">
-        <v>0</v>
-      </c>
-      <c r="O14" s="80">
+      <c r="N14" s="79">
+        <v>0</v>
+      </c>
+      <c r="O14" s="79">
         <v>0</v>
       </c>
       <c r="P14" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="73">
         <v>3</v>
@@ -5210,19 +7457,19 @@
       </c>
       <c r="U14" s="68"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="74">
         <v>1</v>
@@ -5230,13 +7477,13 @@
       <c r="G15" s="74">
         <v>1</v>
       </c>
-      <c r="H15" s="80">
-        <v>0</v>
-      </c>
-      <c r="I15" s="80">
-        <v>0</v>
-      </c>
-      <c r="J15" s="80">
+      <c r="H15" s="79">
+        <v>0</v>
+      </c>
+      <c r="I15" s="79">
+        <v>0</v>
+      </c>
+      <c r="J15" s="79">
         <v>0</v>
       </c>
       <c r="K15" s="74">
@@ -5248,14 +7495,14 @@
       <c r="M15" s="74">
         <v>1</v>
       </c>
-      <c r="N15" s="80">
-        <v>0</v>
-      </c>
-      <c r="O15" s="80">
+      <c r="N15" s="79">
+        <v>0</v>
+      </c>
+      <c r="O15" s="79">
         <v>0</v>
       </c>
       <c r="P15" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="73">
         <v>3</v>
@@ -5271,17 +7518,17 @@
       </c>
       <c r="U15" s="68"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="68"/>
       <c r="C16" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="74">
         <v>1</v>
@@ -5289,13 +7536,13 @@
       <c r="G16" s="74">
         <v>1</v>
       </c>
-      <c r="H16" s="80">
-        <v>0</v>
-      </c>
-      <c r="I16" s="80">
-        <v>0</v>
-      </c>
-      <c r="J16" s="80">
+      <c r="H16" s="79">
+        <v>0</v>
+      </c>
+      <c r="I16" s="79">
+        <v>0</v>
+      </c>
+      <c r="J16" s="79">
         <v>0</v>
       </c>
       <c r="K16" s="74">
@@ -5307,11 +7554,11 @@
       <c r="M16" s="74">
         <v>1</v>
       </c>
-      <c r="N16" s="80">
+      <c r="N16" s="79">
         <v>0</v>
       </c>
       <c r="O16" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P16" s="73">
         <v>3</v>
@@ -5328,34 +7575,34 @@
       <c r="T16" s="68"/>
       <c r="U16" s="68"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="68"/>
-      <c r="C17" s="71">
+      <c r="C17" s="76">
         <v>4</v>
       </c>
       <c r="D17" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="78">
-        <v>8</v>
-      </c>
-      <c r="G17" s="80">
-        <v>0</v>
-      </c>
-      <c r="H17" s="80">
-        <v>0</v>
-      </c>
-      <c r="I17" s="80">
-        <v>0</v>
-      </c>
-      <c r="J17" s="80">
-        <v>0</v>
-      </c>
-      <c r="K17" s="80">
+        <v>6</v>
+      </c>
+      <c r="G17" s="79">
+        <v>0</v>
+      </c>
+      <c r="H17" s="79">
+        <v>0</v>
+      </c>
+      <c r="I17" s="79">
+        <v>0</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
+      <c r="K17" s="79">
         <v>0</v>
       </c>
       <c r="L17" s="74">
@@ -5364,11 +7611,11 @@
       <c r="M17" s="74">
         <v>1</v>
       </c>
-      <c r="N17" s="80">
+      <c r="N17" s="79">
         <v>0</v>
       </c>
       <c r="O17" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P17" s="73">
         <v>3</v>
@@ -5379,51 +7626,51 @@
       <c r="R17" s="73">
         <v>3</v>
       </c>
-      <c r="S17" s="71">
-        <v>4</v>
+      <c r="S17" s="73">
+        <v>3</v>
       </c>
       <c r="T17" s="68"/>
       <c r="U17" s="68"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18" s="78">
-        <v>8</v>
-      </c>
-      <c r="J18" s="80">
-        <v>0</v>
-      </c>
-      <c r="K18" s="80">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
+        <v>6</v>
+      </c>
+      <c r="J18" s="79">
+        <v>0</v>
+      </c>
+      <c r="K18" s="79">
+        <v>0</v>
+      </c>
+      <c r="L18" s="74">
+        <v>1</v>
+      </c>
+      <c r="M18" s="74">
+        <v>1</v>
+      </c>
+      <c r="N18" s="74">
         <v>1</v>
       </c>
       <c r="O18" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P18" s="73">
         <v>3</v>
@@ -5438,56 +7685,56 @@
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
-      <c r="E19" s="71">
+      <c r="E19" s="76">
         <v>4</v>
       </c>
       <c r="F19" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="78">
-        <v>8</v>
-      </c>
-      <c r="K19" s="80">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
+        <v>6</v>
+      </c>
+      <c r="K19" s="79">
+        <v>0</v>
+      </c>
+      <c r="L19" s="74">
+        <v>1</v>
+      </c>
+      <c r="M19" s="74">
+        <v>1</v>
+      </c>
+      <c r="N19" s="74">
         <v>1</v>
       </c>
       <c r="O19" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P19" s="73">
         <v>3</v>
       </c>
-      <c r="Q19" s="71">
-        <v>4</v>
+      <c r="Q19" s="73">
+        <v>3</v>
       </c>
       <c r="R19" s="68"/>
       <c r="S19" s="68"/>
       <c r="T19" s="68"/>
       <c r="U19" s="68"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -5495,31 +7742,31 @@
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
       <c r="G20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" s="72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P20" s="68"/>
       <c r="Q20" s="68"/>
@@ -5528,7 +7775,7 @@
       <c r="T20" s="68"/>
       <c r="U20" s="68"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -5538,19 +7785,19 @@
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M21" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" s="68"/>
       <c r="O21" s="68"/>

--- a/Documentation/R5 Coords.xlsx
+++ b/Documentation/R5 Coords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orola\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Game_RPG_Adventure\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD268ABC-AA3C-4C79-B05A-C7E2BD6C3153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8030B-7BE2-4BC1-AA80-FB3111459FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Converted to numbers" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1199,28 +1200,28 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="14" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="14" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,30 +1567,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
       <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="1:28" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
@@ -2882,7 +2883,7 @@
       <c r="BV4" s="75">
         <v>2</v>
       </c>
-      <c r="BW4" s="88">
+      <c r="BW4" s="86">
         <v>16</v>
       </c>
       <c r="BX4" s="68"/>
@@ -3340,7 +3341,7 @@
       <c r="BH7" s="77">
         <v>5</v>
       </c>
-      <c r="BI7" s="87">
+      <c r="BI7" s="85">
         <v>101</v>
       </c>
       <c r="BJ7" s="77">
@@ -4063,7 +4064,7 @@
       <c r="BN11" s="74">
         <v>1</v>
       </c>
-      <c r="BO11" s="89">
+      <c r="BO11" s="87">
         <v>1</v>
       </c>
       <c r="BP11" s="74">
@@ -4318,7 +4319,7 @@
       <c r="BO12" s="74">
         <v>1</v>
       </c>
-      <c r="BP12" s="86">
+      <c r="BP12" s="84">
         <v>10</v>
       </c>
       <c r="BQ12" s="74">
@@ -4596,10 +4597,10 @@
       <c r="B14" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="78"/>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
@@ -5188,7 +5189,7 @@
       <c r="BE17" s="68"/>
       <c r="BF17" s="68"/>
       <c r="BG17" s="68"/>
-      <c r="BH17" s="85">
+      <c r="BH17" s="83">
         <v>12</v>
       </c>
       <c r="BI17" s="76">
@@ -5227,7 +5228,7 @@
       <c r="BT17" s="72">
         <v>7</v>
       </c>
-      <c r="BU17" s="87">
+      <c r="BU17" s="85">
         <v>15</v>
       </c>
       <c r="BV17" s="73">
@@ -5361,7 +5362,7 @@
       <c r="BF18" s="68"/>
       <c r="BG18" s="68"/>
       <c r="BH18" s="68"/>
-      <c r="BI18" s="85">
+      <c r="BI18" s="83">
         <v>12</v>
       </c>
       <c r="BJ18" s="76">
@@ -5526,7 +5527,7 @@
       <c r="BG19" s="68"/>
       <c r="BH19" s="68"/>
       <c r="BI19" s="68"/>
-      <c r="BJ19" s="85">
+      <c r="BJ19" s="83">
         <v>12</v>
       </c>
       <c r="BK19" s="76">
@@ -5553,7 +5554,7 @@
       <c r="BR19" s="74">
         <v>1</v>
       </c>
-      <c r="BS19" s="90">
+      <c r="BS19" s="88">
         <v>100</v>
       </c>
       <c r="BT19" s="72">
@@ -6368,10 +6369,10 @@
       <c r="B38" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="84"/>
+      <c r="D38" s="90"/>
       <c r="E38" s="78"/>
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
@@ -6653,11 +6654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="21" width="5.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="68"/>
@@ -7810,5 +7814,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>